--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -811,7 +811,7 @@
         <v>2.12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
@@ -1213,7 +1213,7 @@
         <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
         <v>2.88</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
         <v>1.96</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.25</v>
+        <v>4.4</v>
       </c>
       <c r="G8" t="n">
         <v>8.800000000000001</v>
@@ -1486,10 +1486,10 @@
         <v>1.51</v>
       </c>
       <c r="I8" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>5.3</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
         <v>4.4</v>
@@ -1771,13 +1771,13 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
         <v>1.69</v>
@@ -1786,19 +1786,19 @@
         <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
         <v>25</v>
@@ -1852,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11">
@@ -1900,7 +1900,7 @@
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1912,7 +1912,7 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
         <v>2.02</v>
@@ -1939,7 +1939,7 @@
         <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
         <v>28</v>
@@ -1984,7 +1984,7 @@
         <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="n">
         <v>60</v>
@@ -2185,7 +2185,7 @@
         <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
@@ -2299,7 +2299,7 @@
         <v>5.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>3.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -946,7 +946,7 @@
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J4" t="n">
         <v>2.94</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="I6" t="n">
         <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
         <v>1.96</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G7" t="n">
         <v>2.7</v>
@@ -1351,10 +1351,10 @@
         <v>2.96</v>
       </c>
       <c r="I7" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>1.25</v>
       </c>
       <c r="G8" t="n">
         <v>8.800000000000001</v>
@@ -1486,7 +1486,7 @@
         <v>1.51</v>
       </c>
       <c r="I8" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G9" t="n">
         <v>2.16</v>
@@ -1621,13 +1621,13 @@
         <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="J10" t="n">
         <v>4.4</v>
@@ -1765,7 +1765,7 @@
         <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1777,25 +1777,25 @@
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W10" t="n">
         <v>1.22</v>
@@ -1822,7 +1822,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
         <v>60</v>
@@ -1852,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1900,7 +1900,7 @@
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1927,7 +1927,7 @@
         <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
         <v>1.35</v>
@@ -1975,7 +1975,7 @@
         <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
         <v>40</v>
@@ -2050,7 +2050,7 @@
         <v>2.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
@@ -2110,7 +2110,7 @@
         <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H13" t="n">
         <v>4.9</v>
@@ -2182,10 +2182,10 @@
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
@@ -2194,16 +2194,16 @@
         <v>2.98</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
         <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2242,10 +2242,10 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
         <v>30</v>
@@ -2254,10 +2254,10 @@
         <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
         <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
         <v>5.6</v>
@@ -2311,13 +2311,13 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O14" t="n">
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
         <v>2.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -946,7 +946,7 @@
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.94</v>
@@ -970,7 +970,7 @@
         <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I6" t="n">
         <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>1.25</v>
       </c>
       <c r="G8" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
         <v>1.51</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
         <v>1.7</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G9" t="n">
         <v>2.16</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
         <v>4.1</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G10" t="n">
         <v>5.4</v>
       </c>
       <c r="H10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.71</v>
       </c>
       <c r="J10" t="n">
         <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.27</v>
@@ -1774,10 +1774,10 @@
         <v>4.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
         <v>1.7</v>
@@ -1795,7 +1795,7 @@
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W10" t="n">
         <v>1.22</v>
@@ -1927,7 +1927,7 @@
         <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
         <v>1.35</v>
@@ -1939,7 +1939,7 @@
         <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1954,13 +1954,13 @@
         <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1972,10 +1972,10 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>40</v>
@@ -2020,7 +2020,7 @@
         <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
         <v>4.1</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2071,31 +2071,31 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Z12" t="n">
         <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2110,7 +2110,7 @@
         <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
@@ -2119,10 +2119,10 @@
         <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H13" t="n">
         <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2182,16 +2182,16 @@
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
         <v>1.75</v>
@@ -2257,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
         <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2308,10 +2308,10 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>1.76</v>
+        <v>3.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.37</v>
@@ -2320,79 +2320,79 @@
         <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>980</v>
       </c>
       <c r="H16" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="I16" t="n">
         <v>980</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>1.09</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
         <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.01</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +820,16 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
         <v>1.63</v>
@@ -838,76 +838,76 @@
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
         <v>4.1</v>
@@ -1219,7 +1219,7 @@
         <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="K6" t="n">
         <v>5.6</v>
@@ -1354,10 +1354,10 @@
         <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.25</v>
+        <v>4.4</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>1.51</v>
       </c>
       <c r="I8" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
         <v>1.7</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="G10" t="n">
         <v>5.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="J10" t="n">
         <v>4.4</v>
@@ -1771,10 +1771,10 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
         <v>2.34</v>
@@ -1783,10 +1783,10 @@
         <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T10" t="n">
         <v>1.72</v>
@@ -1795,19 +1795,19 @@
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>21</v>
@@ -1816,13 +1816,13 @@
         <v>24</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
         <v>60</v>
@@ -1885,7 +1885,7 @@
         <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
         <v>3.75</v>
@@ -1912,7 +1912,7 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q11" t="n">
         <v>2.02</v>
@@ -1939,13 +1939,13 @@
         <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>9.800000000000001</v>
@@ -1954,10 +1954,10 @@
         <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -1972,10 +1972,10 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>40</v>
@@ -1984,7 +1984,7 @@
         <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>60</v>
@@ -2020,10 +2020,10 @@
         <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
         <v>4.4</v>
@@ -2074,7 +2074,7 @@
         <v>36</v>
       </c>
       <c r="Y12" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="n">
         <v>980</v>
@@ -2092,31 +2092,31 @@
         <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
         <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
         <v>6.8</v>
@@ -2158,7 +2158,7 @@
         <v>1.78</v>
       </c>
       <c r="H13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I13" t="n">
         <v>5</v>
@@ -2170,7 +2170,7 @@
         <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2185,19 +2185,19 @@
         <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
         <v>1.25</v>
@@ -2293,10 +2293,10 @@
         <v>2.16</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2326,7 +2326,7 @@
         <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
         <v>1.86</v>
@@ -2335,7 +2335,7 @@
         <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
         <v>1.87</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,10 +709,10 @@
         <v>1.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -823,7 +823,7 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>2.72</v>
@@ -832,25 +832,25 @@
         <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="W3" t="n">
         <v>1.27</v>
@@ -859,34 +859,34 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -946,7 +946,7 @@
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.94</v>
@@ -955,100 +955,100 @@
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,31 +1063,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fk Velez Mostar</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
         <v>4.1</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J6" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1328,54 +1328,54 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.12</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>1.7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.98</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>8.800000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="H8" t="n">
-        <v>1.51</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>5.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>1.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>1.72</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.51</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.1</v>
+        <v>2.24</v>
       </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>1.71</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>2.4</v>
+        <v>1.35</v>
       </c>
       <c r="W10" t="n">
-        <v>1.23</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11</v>
       </c>
-      <c r="Z10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO10" t="n">
         <v>60</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>2.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
         <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK11" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>28</v>
-      </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="G12" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.96</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.45</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T12" t="n">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>2.78</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
         <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
         <v>16</v>
       </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.76</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="Q13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.29</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
         <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
         <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO13" t="n">
         <v>95</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>1.24</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>1.19</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2446,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.98</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.19</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2527,141 +2527,6 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Vasco Da Gama</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Mirassol</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G16" t="n">
-        <v>980</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>980</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="H2" t="n">
         <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
         <v>1.02</v>
@@ -817,7 +817,7 @@
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -841,7 +841,7 @@
         <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,7 +850,7 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="W3" t="n">
         <v>1.27</v>
@@ -952,13 +952,13 @@
         <v>2.94</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>3.05</v>
@@ -979,7 +979,7 @@
         <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
         <v>1.93</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Fk Velez Mostar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>610</v>
       </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>870</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>3.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>2.34</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>2.68</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>8.800000000000001</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.63</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.3</v>
       </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>2.36</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>3.05</v>
+        <v>1.51</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>1.63</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.2</v>
+        <v>2.16</v>
       </c>
       <c r="G9" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.72</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.4</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.24</v>
       </c>
-      <c r="P9" t="n">
-        <v>2.34</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>5.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>1.71</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>2.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.79</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>90</v>
+        <v>18.5</v>
       </c>
       <c r="AB10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD10" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH10" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>710</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1.87</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.96</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.8</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X11" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>28</v>
       </c>
-      <c r="Z11" t="n">
-        <v>980</v>
-      </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.8</v>
+        <v>18.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
         <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="n">
         <v>42</v>
       </c>
-      <c r="AA12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.76</v>
       </c>
-      <c r="Q13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.86</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
         <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA13" t="n">
         <v>130</v>
       </c>
       <c r="AB13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG13" t="n">
         <v>10</v>
       </c>
-      <c r="AC13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>980</v>
-      </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AO13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,260 +2273,395 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="J14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L14" t="n">
         <v>1.01</v>
       </c>
-      <c r="K14" t="n">
-        <v>950</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>1.24</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.19</v>
+        <v>2.06</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CD Gualberto Villarroel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>San Antonio Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>600</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>870</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K15" t="n">
+        <v>950</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2025-12-02</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Vasco Da Gama</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Mirassol</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.26</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>3.55</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>3.95</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>3.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>3.9</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
+      <c r="Q16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="G2" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
         <v>950</v>
@@ -715,7 +715,7 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -811,19 +811,19 @@
         <v>2.12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>2.72</v>
@@ -841,7 +841,7 @@
         <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>2.28</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -982,7 +982,7 @@
         <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
         <v>1.29</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G5" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="H5" t="n">
         <v>1.04</v>
@@ -1084,7 +1084,7 @@
         <v>870</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
         <v>2.34</v>
@@ -1219,7 +1219,7 @@
         <v>2.68</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
@@ -1228,7 +1228,7 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>2.78</v>
@@ -1258,7 +1258,7 @@
         <v>1.59</v>
       </c>
       <c r="W6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X6" t="n">
         <v>960</v>
@@ -1354,10 +1354,10 @@
         <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1384,13 +1384,13 @@
         <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
         <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
         <v>1.72</v>
@@ -1480,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
         <v>1.51</v>
@@ -1495,13 +1495,13 @@
         <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1516,19 +1516,19 @@
         <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
         <v>2.58</v>
       </c>
       <c r="W8" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="X8" t="n">
         <v>29</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>2.48</v>
       </c>
       <c r="H9" t="n">
-        <v>1.3</v>
+        <v>2.84</v>
       </c>
       <c r="I9" t="n">
         <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
         <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1753,7 @@
         <v>5.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="I10" t="n">
         <v>1.71</v>
@@ -1783,16 +1783,16 @@
         <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
         <v>2.4</v>
@@ -1801,46 +1801,46 @@
         <v>1.22</v>
       </c>
       <c r="X10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB10" t="n">
         <v>22</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>24</v>
       </c>
       <c r="AC10" t="n">
         <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>710</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
         <v>60</v>
@@ -1849,7 +1849,7 @@
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>8.4</v>
@@ -1894,13 +1894,13 @@
         <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1909,10 +1909,10 @@
         <v>3.75</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q11" t="n">
         <v>2</v>
@@ -1921,73 +1921,73 @@
         <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
         <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF11" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AG11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>28</v>
       </c>
-      <c r="AA11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>30</v>
-      </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
         <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -2023,16 +2023,16 @@
         <v>1.87</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="U12" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
         <v>28</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC12" t="n">
         <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN12" t="n">
         <v>6.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H13" t="n">
         <v>4.9</v>
@@ -2164,13 +2164,13 @@
         <v>5</v>
       </c>
       <c r="J13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.3</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2185,61 +2185,61 @@
         <v>2.22</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.77</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.76</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
         <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="n">
         <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
         <v>17</v>
@@ -2248,16 +2248,16 @@
         <v>16</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
         <v>9</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2293,13 +2293,13 @@
         <v>2.14</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
         <v>5.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
@@ -2320,13 +2320,13 @@
         <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
         <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
         <v>1.86</v>
@@ -2335,7 +2335,7 @@
         <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
         <v>1.87</v>
@@ -2590,7 +2590,7 @@
         <v>1.98</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,19 +670,19 @@
         <v>1.09</v>
       </c>
       <c r="G2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="H2" t="n">
         <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="J2" t="n">
         <v>1.09</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -841,10 +841,10 @@
         <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -904,16 +904,16 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>FC Groningen</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.01</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>2.14</v>
       </c>
       <c r="O4" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>1.79</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>960</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fk Velez Mostar</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.09</v>
+        <v>2.04</v>
       </c>
       <c r="G5" t="n">
-        <v>600</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>870</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.09</v>
+        <v>2.94</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>1.42</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>1.77</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Fk Velez Mostar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.96</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="H6" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.68</v>
+        <v>980</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.78</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>1.42</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.59</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="X6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.38</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="W7" t="n">
-        <v>1.72</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="n">
         <v>55</v>
       </c>
-      <c r="AF7" t="n">
-        <v>960</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>960</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>960</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AL7" t="n">
         <v>70</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>48</v>
-      </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>2.12</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.63</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>2.28</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.58</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>1.15</v>
+        <v>1.71</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.48</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.84</v>
+        <v>1.51</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>1.63</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.01</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>2.28</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>2.58</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.15</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>960</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>960</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="n">
-        <v>960</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>960</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG9" t="n">
         <v>38</v>
       </c>
-      <c r="AF9" t="n">
-        <v>960</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>960</v>
-      </c>
       <c r="AH9" t="n">
-        <v>960</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.2</v>
+        <v>2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>1.69</v>
+        <v>2.84</v>
       </c>
       <c r="I10" t="n">
-        <v>1.71</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.4</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
         <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
-        <v>2.4</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>5.3</v>
       </c>
       <c r="G11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.24</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.14</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.35</v>
+        <v>2.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.81</v>
+        <v>1.22</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15</v>
-      </c>
       <c r="AE11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF11" t="n">
         <v>44</v>
       </c>
-      <c r="AF11" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN11" t="n">
         <v>55</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.47</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>2.84</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="X12" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>28</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
         <v>38</v>
       </c>
-      <c r="AA12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
       <c r="AM12" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="G13" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="H13" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>1.49</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE13" t="n">
         <v>40</v>
       </c>
-      <c r="AA13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>60</v>
-      </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AN13" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="G14" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>3.75</v>
+        <v>2.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
         <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="n">
         <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM14" t="n">
         <v>90</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>150</v>
-      </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,261 +2408,396 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>600</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>870</v>
+        <v>5.6</v>
       </c>
       <c r="J15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L15" t="n">
         <v>1.01</v>
       </c>
-      <c r="K15" t="n">
-        <v>950</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.25</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CD Gualberto Villarroel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>San Antonio Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I16" t="n">
+        <v>980</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K16" t="n">
+        <v>980</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>2025-12-02</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Vasco Da Gama</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Mirassol</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F17" t="n">
         <v>2.12</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>2.26</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H17" t="n">
         <v>3.5</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -805,7 +805,7 @@
         <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>2.12</v>
@@ -817,19 +817,19 @@
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>2.72</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="P3" t="n">
         <v>1.69</v>
@@ -844,16 +844,16 @@
         <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -862,7 +862,7 @@
         <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
         <v>46</v>
@@ -874,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
         <v>40</v>
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -940,28 +940,28 @@
         <v>2.14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.14</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
@@ -970,13 +970,13 @@
         <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
         <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -988,58 +988,58 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
         <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1081,10 +1081,10 @@
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1102,7 +1102,7 @@
         <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
@@ -1126,55 +1126,55 @@
         <v>1.77</v>
       </c>
       <c r="X5" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
         <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>960</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>960</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
         <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
         <v>85</v>
@@ -1348,7 +1348,7 @@
         <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I7" t="n">
         <v>2.68</v>
@@ -1372,10 +1372,10 @@
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1435,7 +1435,7 @@
         <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
         <v>70</v>
@@ -1495,7 +1495,7 @@
         <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1510,13 +1510,13 @@
         <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1552,7 +1552,7 @@
         <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
         <v>980</v>
@@ -1630,7 +1630,7 @@
         <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -1648,13 +1648,13 @@
         <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
         <v>1.04</v>
@@ -1753,13 +1753,13 @@
         <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="I10" t="n">
         <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
@@ -1771,7 +1771,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G11" t="n">
         <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="J11" t="n">
         <v>4.4</v>
@@ -1912,13 +1912,13 @@
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
         <v>1.71</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
         <v>2.82</v>
@@ -1930,40 +1930,40 @@
         <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
         <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -1972,10 +1972,10 @@
         <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL11" t="n">
         <v>60</v>
@@ -1987,7 +1987,7 @@
         <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2038,7 +2038,7 @@
         <v>1.43</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>3.9</v>
@@ -2047,7 +2047,7 @@
         <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
         <v>2</v>
@@ -2107,7 +2107,7 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
@@ -2164,7 +2164,7 @@
         <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
         <v>4.6</v>
@@ -2197,7 +2197,7 @@
         <v>1.49</v>
       </c>
       <c r="U13" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>28</v>
       </c>
       <c r="Z13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="n">
         <v>16.5</v>
@@ -2227,7 +2227,7 @@
         <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
         <v>16</v>
@@ -2236,13 +2236,13 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI13" t="n">
         <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2251,7 +2251,7 @@
         <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN13" t="n">
         <v>6.6</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I14" t="n">
         <v>5.2</v>
       </c>
       <c r="J14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.28</v>
@@ -2317,16 +2317,16 @@
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="T14" t="n">
         <v>1.78</v>
@@ -2338,19 +2338,19 @@
         <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z14" t="n">
         <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB14" t="n">
         <v>10.5</v>
@@ -2359,7 +2359,7 @@
         <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
         <v>60</v>
@@ -2371,10 +2371,10 @@
         <v>9.6</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
         <v>17</v>
@@ -2392,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,34 +2446,34 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
         <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2485,19 +2485,19 @@
         <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
         <v>980</v>
@@ -2506,10 +2506,10 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2524,10 +2524,10 @@
         <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>570</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="I16" t="n">
         <v>980</v>
       </c>
       <c r="J16" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="K16" t="n">
         <v>980</v>
@@ -2605,10 +2605,10 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2695,7 +2695,7 @@
         <v>2.12</v>
       </c>
       <c r="G17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
@@ -2704,10 +2704,10 @@
         <v>3.85</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.39</v>
@@ -2722,10 +2722,10 @@
         <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
@@ -2734,7 +2734,7 @@
         <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
         <v>2.16</v>
@@ -2743,10 +2743,10 @@
         <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y17" t="n">
         <v>15</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -808,7 +808,7 @@
         <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I3" t="n">
         <v>2.4</v>
@@ -820,16 +820,16 @@
         <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
         <v>1.69</v>
@@ -841,13 +841,13 @@
         <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="V3" t="n">
         <v>1.72</v>
@@ -859,22 +859,22 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
         <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>40</v>
@@ -883,19 +883,19 @@
         <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
         <v>2.18</v>
@@ -946,7 +946,7 @@
         <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -964,7 +964,7 @@
         <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
@@ -988,7 +988,7 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X4" t="n">
         <v>18.5</v>
@@ -997,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
         <v>80</v>
@@ -1084,7 +1084,7 @@
         <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1120,7 +1120,7 @@
         <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
         <v>1.77</v>
@@ -1168,7 +1168,7 @@
         <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I7" t="n">
         <v>2.68</v>
@@ -1375,7 +1375,7 @@
         <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1495,7 +1495,7 @@
         <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
         <v>2.48</v>
@@ -1759,7 +1759,7 @@
         <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.71</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.72</v>
       </c>
       <c r="J11" t="n">
         <v>4.4</v>
@@ -1909,19 +1909,19 @@
         <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
         <v>1.71</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.75</v>
@@ -1930,28 +1930,28 @@
         <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
         <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
         <v>9.800000000000001</v>
@@ -1963,7 +1963,7 @@
         <v>42</v>
       </c>
       <c r="AG11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -1987,7 +1987,7 @@
         <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2056,7 +2056,7 @@
         <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
         <v>1.79</v>
@@ -2155,7 +2155,7 @@
         <v>1.87</v>
       </c>
       <c r="G13" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
         <v>5.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.2</v>
       </c>
       <c r="J14" t="n">
         <v>4.2</v>
@@ -2326,7 +2326,7 @@
         <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
         <v>1.78</v>
@@ -2335,7 +2335,7 @@
         <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
         <v>2.3</v>
@@ -2383,7 +2383,7 @@
         <v>16.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>90</v>
@@ -2428,7 +2428,7 @@
         <v>2.06</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
         <v>5.4</v>
@@ -2470,10 +2470,10 @@
         <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2485,7 +2485,7 @@
         <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB15" t="n">
         <v>9</v>
@@ -2497,7 +2497,7 @@
         <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="n">
         <v>980</v>
@@ -2509,7 +2509,7 @@
         <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="G16" t="n">
-        <v>570</v>
+        <v>980</v>
       </c>
       <c r="H16" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
         <v>980</v>
       </c>
       <c r="J16" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="K16" t="n">
         <v>980</v>
@@ -2605,7 +2605,7 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
         <v>1.01</v>
@@ -2704,7 +2704,7 @@
         <v>3.85</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>3.9</v>
@@ -2716,19 +2716,19 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
         <v>1.97</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -2737,13 +2737,13 @@
         <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V17" t="n">
         <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X17" t="n">
         <v>18.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,7 @@
         <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
@@ -820,16 +820,16 @@
         <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P3" t="n">
         <v>1.69</v>
@@ -838,16 +838,16 @@
         <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="V3" t="n">
         <v>1.72</v>
@@ -856,58 +856,58 @@
         <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK3" t="n">
         <v>65</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>70</v>
-      </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.65</v>
@@ -955,7 +955,7 @@
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -988,7 +988,7 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
         <v>18.5</v>
@@ -997,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
         <v>80</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
         <v>2.3</v>
@@ -1081,10 +1081,10 @@
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1117,10 +1117,10 @@
         <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
         <v>1.77</v>
@@ -1177,7 +1177,7 @@
         <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1372,10 +1372,10 @@
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1483,7 +1483,7 @@
         <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G9" t="n">
         <v>7.6</v>
@@ -1630,34 +1630,34 @@
         <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O9" t="n">
         <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
         <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
         <v>2.58</v>
@@ -1666,58 +1666,58 @@
         <v>1.15</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G10" t="n">
         <v>2.48</v>
@@ -1900,13 +1900,13 @@
         <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -2038,7 +2038,7 @@
         <v>1.43</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>3.85</v>
@@ -2071,7 +2071,7 @@
         <v>1.82</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>14.5</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G14" t="n">
         <v>1.77</v>
@@ -2368,7 +2368,7 @@
         <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
         <v>18</v>
@@ -2422,43 +2422,43 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2473,10 +2473,10 @@
         <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G17" t="n">
         <v>2.24</v>
@@ -2704,10 +2704,10 @@
         <v>3.85</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
         <v>1.39</v>
@@ -2725,10 +2725,10 @@
         <v>1.97</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -2743,13 +2743,13 @@
         <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X17" t="n">
         <v>18.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
         <v>980</v>
@@ -2797,6 +2797,141 @@
         <v>16.5</v>
       </c>
       <c r="AO17" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO18" t="n">
         <v>980</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,7 @@
         <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
@@ -826,7 +826,7 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="O3" t="n">
         <v>1.39</v>
@@ -841,16 +841,16 @@
         <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -874,7 +874,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>34</v>
@@ -886,7 +886,7 @@
         <v>19.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
@@ -898,7 +898,7 @@
         <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
         <v>160</v>
@@ -943,7 +943,7 @@
         <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>3.75</v>
@@ -955,13 +955,13 @@
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
@@ -970,13 +970,13 @@
         <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -994,43 +994,43 @@
         <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
         <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1084,19 +1084,19 @@
         <v>4.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O5" t="n">
         <v>1.38</v>
@@ -1105,31 +1105,31 @@
         <v>1.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
         <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1138,10 +1138,10 @@
         <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1348,22 +1348,22 @@
         <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
         <v>2.78</v>
@@ -1375,7 +1375,7 @@
         <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1390,7 +1390,7 @@
         <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
         <v>1.39</v>
@@ -1486,16 +1486,16 @@
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1513,10 +1513,10 @@
         <v>1.89</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="G9" t="n">
         <v>7.6</v>
@@ -1633,16 +1633,16 @@
         <v>1.23</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>2.32</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
         <v>1.6</v>
@@ -1651,10 +1651,10 @@
         <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
         <v>1.98</v>
@@ -1666,16 +1666,16 @@
         <v>1.15</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
         <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB9" t="n">
         <v>30</v>
@@ -1687,7 +1687,7 @@
         <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF9" t="n">
         <v>70</v>
@@ -1696,7 +1696,7 @@
         <v>32</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>40</v>
@@ -1750,13 +1750,13 @@
         <v>2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J10" t="n">
         <v>3.9</v>
@@ -1777,28 +1777,28 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.48</v>
       </c>
       <c r="T10" t="n">
         <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G11" t="n">
         <v>5.5</v>
@@ -1891,7 +1891,7 @@
         <v>1.69</v>
       </c>
       <c r="I11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
         <v>4.4</v>
@@ -1948,10 +1948,10 @@
         <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>9.800000000000001</v>
@@ -1960,13 +1960,13 @@
         <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG11" t="n">
         <v>20</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>120</v>
       </c>
       <c r="AK11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
         <v>60</v>
@@ -2059,7 +2059,7 @@
         <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
         <v>2.18</v>
@@ -2161,7 +2161,7 @@
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
         <v>4.4</v>
@@ -2185,7 +2185,7 @@
         <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2209,10 +2209,10 @@
         <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
         <v>80</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G14" t="n">
         <v>1.77</v>
@@ -2314,7 +2314,7 @@
         <v>4.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
         <v>2.24</v>
@@ -2329,7 +2329,7 @@
         <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
@@ -2338,7 +2338,7 @@
         <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
@@ -2368,7 +2368,7 @@
         <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH14" t="n">
         <v>18</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>1.24</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="G16" t="n">
-        <v>980</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.18</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>1.18</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.08</v>
+        <v>1.25</v>
       </c>
       <c r="G17" t="n">
-        <v>2.24</v>
+        <v>980</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>1.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>980</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>1.97</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>1.18</v>
       </c>
       <c r="T17" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2813,125 +2813,260 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.96</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>2.32</v>
       </c>
       <c r="H18" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>2.84</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.67</v>
+        <v>1.99</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>1.86</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG18" t="n">
         <v>11</v>
       </c>
-      <c r="AC18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
         <v>55</v>
       </c>
       <c r="AJ18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>60</v>
       </c>
-      <c r="AK18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL18" t="n">
+      <c r="AK19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL19" t="n">
         <v>60</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM19" t="n">
         <v>160</v>
       </c>
-      <c r="AN18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO18" t="n">
+      <c r="AN19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO19" t="n">
         <v>980</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,19 +829,19 @@
         <v>2.74</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
         <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
         <v>1.87</v>
@@ -898,7 +898,7 @@
         <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="n">
         <v>160</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
         <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -955,28 +955,28 @@
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
         <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -991,7 +991,7 @@
         <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>16</v>
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
@@ -1021,13 +1021,13 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1096,10 +1096,10 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
         <v>1.68</v>
@@ -1213,7 +1213,7 @@
         <v>980</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
         <v>980</v>
@@ -1438,7 +1438,7 @@
         <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1528,7 +1528,7 @@
         <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1633,7 +1633,7 @@
         <v>1.23</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>3.75</v>
@@ -1642,16 +1642,16 @@
         <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
         <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
         <v>1.83</v>
@@ -1765,13 +1765,13 @@
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -1795,10 +1795,10 @@
         <v>2.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.3</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>1.69</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>1.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>2.42</v>
+        <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.22</v>
+        <v>1.81</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AH11" t="n">
         <v>17</v>
       </c>
-      <c r="AB11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AI11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO11" t="n">
         <v>44</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22</v>
+        <v>5.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>1.71</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>1.72</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>2.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.82</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC12" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE12" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>44</v>
-      </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN12" t="n">
         <v>55</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>17</v>
-      </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2161,37 +2161,37 @@
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
         <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
         <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
         <v>1.49</v>
@@ -2200,10 +2200,10 @@
         <v>2.92</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X13" t="n">
         <v>32</v>
@@ -2242,7 +2242,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.76</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.77</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
@@ -2311,10 +2311,10 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
         <v>2.24</v>
@@ -2338,10 +2338,10 @@
         <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
         <v>19.5</v>
@@ -2356,7 +2356,7 @@
         <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>19</v>
@@ -2368,7 +2368,7 @@
         <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
         <v>18</v>
@@ -2437,7 +2437,7 @@
         <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
@@ -2461,7 +2461,7 @@
         <v>1.13</v>
       </c>
       <c r="S15" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="H16" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
         <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T16" t="n">
         <v>1.94</v>
       </c>
       <c r="U16" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X16" t="n">
         <v>14</v>
@@ -2620,7 +2620,7 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB16" t="n">
         <v>9</v>
@@ -2632,7 +2632,7 @@
         <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="n">
         <v>980</v>
@@ -2662,7 +2662,7 @@
         <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -2836,7 +2836,7 @@
         <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2860,7 +2860,7 @@
         <v>1.99</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R18" t="n">
         <v>1.38</v>
@@ -2938,135 +2938,270 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Club Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G19" t="n">
+        <v>980</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I19" t="n">
+        <v>980</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K19" t="n">
+        <v>980</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2025-12-02</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Gremio</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>2.96</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>3.3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>2.54</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>2.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>3.15</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K20" t="n">
         <v>3.5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>1.49</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M20" t="n">
         <v>1.1</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N20" t="n">
         <v>2.98</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O20" t="n">
         <v>1.43</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P20" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q20" t="n">
         <v>2.28</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R20" t="n">
         <v>1.24</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S20" t="n">
         <v>4.2</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T20" t="n">
         <v>1.91</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U20" t="n">
         <v>1.9</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V20" t="n">
         <v>1.56</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W20" t="n">
         <v>1.44</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X20" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y20" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z20" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AA20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB20" t="n">
         <v>11</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC20" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD20" t="n">
         <v>13</v>
       </c>
-      <c r="AE19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AE20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF20" t="n">
         <v>22</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG20" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH20" t="n">
         <v>21</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI20" t="n">
         <v>55</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ20" t="n">
         <v>60</v>
       </c>
-      <c r="AK19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AK20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL20" t="n">
         <v>60</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM20" t="n">
         <v>160</v>
       </c>
-      <c r="AN19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="AN20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO20" t="n">
         <v>980</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,13 +700,13 @@
         <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I3" t="n">
         <v>2.4</v>
@@ -826,34 +826,34 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P3" t="n">
         <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="R3" t="n">
         <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V3" t="n">
         <v>1.71</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
         <v>14</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
@@ -880,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
         <v>19.5</v>
@@ -892,7 +892,7 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK3" t="n">
         <v>65</v>
@@ -904,10 +904,10 @@
         <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -923,7 +923,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -937,118 +937,118 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>FC Groningen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.7</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>2.98</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD5" t="n">
         <v>15</v>
       </c>
-      <c r="Z5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>980</v>
-      </c>
       <c r="AE5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AK5" t="n">
         <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fk Velez Mostar</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.09</v>
       </c>
-      <c r="G6" t="n">
-        <v>980</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I6" t="n">
-        <v>980</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K6" t="n">
-        <v>980</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N6" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.25</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.42</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.17</v>
+        <v>1.77</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Fk Velez Mostar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>980</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1463,72 +1463,72 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.12</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.89</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.72</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1540,7 +1540,7 @@
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
         <v>980</v>
@@ -1564,10 +1564,10 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1576,13 +1576,13 @@
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.4</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>1.51</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.63</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>2.58</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.15</v>
+        <v>1.69</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI9" t="n">
         <v>70</v>
       </c>
-      <c r="AG9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM9" t="n">
         <v>120</v>
       </c>
-      <c r="AL9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>140</v>
-      </c>
       <c r="AN9" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.199999999999999</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.18</v>
+        <v>5.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>1.51</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>1.63</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>2.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.69</v>
+        <v>1.15</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="H11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.75</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM11" t="n">
         <v>75</v>
       </c>
-      <c r="AB11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>95</v>
-      </c>
       <c r="AN11" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.71</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.72</v>
-      </c>
       <c r="J12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
@@ -2056,7 +2056,7 @@
         <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
         <v>1.74</v>
@@ -2068,16 +2068,16 @@
         <v>2.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
@@ -2095,7 +2095,7 @@
         <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="n">
         <v>20</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>1.89</v>
+        <v>2.24</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>7.2</v>
+        <v>3.85</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.86</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.92</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>27</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
         <v>38</v>
       </c>
-      <c r="AA13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AM13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN13" t="n">
         <v>17</v>
       </c>
-      <c r="AE13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.49</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
         <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>1.79</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.25</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>4.4</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>950</v>
       </c>
       <c r="L16" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="S16" t="n">
-        <v>4.1</v>
+        <v>1.42</v>
       </c>
       <c r="T16" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.25</v>
+        <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>980</v>
+        <v>2.08</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="I17" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.18</v>
+        <v>2.24</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>1.18</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>980</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>980</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="L18" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>1.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>1.99</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.87</v>
+        <v>1.18</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>1.18</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,260 +2948,395 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Club Independiente Petrolero</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="G19" t="n">
-        <v>980</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>980</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Club Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G20" t="n">
+        <v>980</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I20" t="n">
+        <v>980</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K20" t="n">
+        <v>980</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>2025-12-02</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Gremio</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
         <v>2.96</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>3.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>2.54</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>2.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
         <v>3.15</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K21" t="n">
         <v>3.5</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="L21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M21" t="n">
         <v>1.1</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N21" t="n">
         <v>2.98</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O21" t="n">
         <v>1.43</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>2.28</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R21" t="n">
         <v>1.24</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S21" t="n">
         <v>4.2</v>
       </c>
-      <c r="T20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="T21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.9</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V21" t="n">
         <v>1.56</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W21" t="n">
         <v>1.44</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X21" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y21" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z21" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AA21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB21" t="n">
         <v>11</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC21" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD21" t="n">
         <v>13</v>
       </c>
-      <c r="AE20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AE21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF21" t="n">
         <v>22</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH21" t="n">
         <v>21</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI21" t="n">
         <v>55</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ21" t="n">
         <v>60</v>
       </c>
-      <c r="AK20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL20" t="n">
+      <c r="AK21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL21" t="n">
         <v>60</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM21" t="n">
         <v>160</v>
       </c>
-      <c r="AN20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO20" t="n">
+      <c r="AN21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO21" t="n">
         <v>980</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
-        <v>980</v>
+        <v>1.46</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="I2" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>2.26</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
         <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
@@ -820,31 +820,31 @@
         <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
         <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
         <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
         <v>1.93</v>
@@ -856,22 +856,22 @@
         <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
         <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
@@ -883,7 +883,7 @@
         <v>32</v>
       </c>
       <c r="AG3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -892,19 +892,19 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK3" t="n">
         <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
         <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO3" t="n">
         <v>29</v>
@@ -937,118 +937,118 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Groningen</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.75</v>
       </c>
       <c r="L5" t="n">
         <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>2.96</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.89</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.1</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>960</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
         <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Fk Velez Mostar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>980</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.98</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>1.42</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.77</v>
+        <v>1.17</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fk Velez Mostar</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.09</v>
       </c>
-      <c r="G7" t="n">
-        <v>980</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I7" t="n">
-        <v>980</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K7" t="n">
-        <v>980</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.61</v>
       </c>
       <c r="W7" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1463,72 +1463,72 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.05</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.98</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1540,7 +1540,7 @@
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="n">
         <v>980</v>
@@ -1564,10 +1564,10 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1576,13 +1576,13 @@
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>5.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>1.51</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>1.63</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>2.58</v>
       </c>
       <c r="W9" t="n">
-        <v>1.69</v>
+        <v>1.15</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.4</v>
+        <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.51</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.46</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="V10" t="n">
-        <v>2.58</v>
+        <v>1.43</v>
       </c>
       <c r="W10" t="n">
-        <v>1.15</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>2.34</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2047,7 +2047,7 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
         <v>1.71</v>
@@ -2062,7 +2062,7 @@
         <v>1.74</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
         <v>2.4</v>
@@ -2074,7 +2074,7 @@
         <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>11</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>1.86</v>
       </c>
       <c r="G13" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.85</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>2.12</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22</v>
+        <v>2.9</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AI13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK13" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO13" t="n">
         <v>23</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="G14" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
         <v>4.2</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.46</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.12</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
-        <v>2.9</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="Z14" t="n">
         <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK14" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>1.79</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>1.25</v>
       </c>
       <c r="O15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.25</v>
       </c>
-      <c r="P15" t="n">
-        <v>2.24</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>1.42</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>1.42</v>
+        <v>4.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.99</v>
+        <v>1.27</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08</v>
+        <v>980</v>
       </c>
       <c r="H17" t="n">
-        <v>4.4</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>4.8</v>
+        <v>980</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>1.21</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>980</v>
       </c>
       <c r="L17" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="P17" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>1.18</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
-        <v>980</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.25</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>980</v>
+        <v>3.85</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.18</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>1.18</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Club Independiente Petrolero</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>980</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>980</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>1.26</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,260 +3083,125 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Club Independiente Petrolero</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>2.98</v>
       </c>
       <c r="G20" t="n">
-        <v>980</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="I20" t="n">
-        <v>980</v>
+        <v>2.78</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>1.26</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="P20" t="n">
-        <v>1.26</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>1.25</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO21" t="n">
         <v>980</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,37 +667,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G2" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="I2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
         <v>1.66</v>
@@ -706,73 +706,73 @@
         <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA2" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I3" t="n">
         <v>2.4</v>
@@ -817,28 +817,28 @@
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O3" t="n">
         <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
         <v>4.2</v>
@@ -847,7 +847,7 @@
         <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
         <v>1.71</v>
@@ -862,19 +862,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
         <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
         <v>34</v>
@@ -886,28 +886,28 @@
         <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
         <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="n">
         <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
         <v>2.2</v>
@@ -949,7 +949,7 @@
         <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
@@ -961,7 +961,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
         <v>1.28</v>
@@ -973,7 +973,7 @@
         <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
         <v>1.9</v>
@@ -985,19 +985,19 @@
         <v>1.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
         <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>70</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>FC Van Yerevan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>2.42</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>3.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fk Velez Mostar</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.09</v>
       </c>
-      <c r="G6" t="n">
-        <v>980</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I6" t="n">
-        <v>980</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K6" t="n">
-        <v>980</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.25</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.42</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.17</v>
+        <v>1.76</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Fk Velez Mostar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>2.58</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="I7" t="n">
-        <v>2.64</v>
+        <v>3.45</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>2.76</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>60</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>75</v>
-      </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1463,93 +1463,93 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE8" t="n">
         <v>980</v>
@@ -1564,10 +1564,10 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1576,13 +1576,13 @@
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.5</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>1.51</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.63</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>2.58</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.15</v>
+        <v>1.69</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB9" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>30</v>
-      </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI9" t="n">
         <v>70</v>
       </c>
-      <c r="AG9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
         <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1733,72 +1733,72 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.22</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
+        <v>980</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
         <v>2.34</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.1</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
         <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.43</v>
+        <v>2.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.13</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1810,7 +1810,7 @@
         <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
@@ -1825,7 +1825,7 @@
         <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
@@ -1837,28 +1837,28 @@
         <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.85</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2023,49 +2023,49 @@
         <v>5.5</v>
       </c>
       <c r="H12" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.7</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.71</v>
-      </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
         <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W12" t="n">
         <v>1.22</v>
@@ -2104,7 +2104,7 @@
         <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
         <v>130</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>7.2</v>
+        <v>3.85</v>
       </c>
       <c r="O13" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.46</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.85</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>2.12</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>27</v>
       </c>
-      <c r="Z13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AK13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN13" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="G14" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
         <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>1.77</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.25</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>1.42</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="G16" t="n">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="H16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.4</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="P16" t="n">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI16" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.27</v>
+        <v>2.48</v>
       </c>
       <c r="G17" t="n">
-        <v>980</v>
+        <v>2.56</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>980</v>
+        <v>2.84</v>
       </c>
       <c r="J17" t="n">
-        <v>1.21</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>1.18</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>1.86</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W18" t="n">
         <v>2.16</v>
       </c>
-      <c r="V18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.81</v>
-      </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF18" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AG18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN18" t="n">
         <v>10</v>
       </c>
-      <c r="AC18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>18</v>
-      </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Club Independiente Petrolero</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="G19" t="n">
-        <v>980</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>980</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>1.25</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,125 +3083,260 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Club Independiente Petrolero</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.98</v>
+        <v>1.97</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>2.22</v>
       </c>
       <c r="H20" t="n">
-        <v>2.56</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>2.78</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.28</v>
+        <v>1.58</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>4.4</v>
+        <v>2.44</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="W20" t="n">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="X20" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>60</v>
       </c>
-      <c r="AK20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL20" t="n">
+      <c r="AK21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL21" t="n">
         <v>60</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM21" t="n">
         <v>160</v>
       </c>
-      <c r="AN20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO20" t="n">
+      <c r="AN21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO21" t="n">
         <v>980</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H2" t="n">
         <v>6.4</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
         <v>38</v>
@@ -730,19 +730,19 @@
         <v>95</v>
       </c>
       <c r="AA2" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
@@ -751,28 +751,28 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -844,7 +844,7 @@
         <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
         <v>1.9</v>
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
@@ -904,7 +904,7 @@
         <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO3" t="n">
         <v>32</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.7</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
@@ -961,16 +961,16 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
         <v>1.16</v>
@@ -979,28 +979,28 @@
         <v>1.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
         <v>1.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="I5" t="n">
         <v>1.45</v>
@@ -1087,40 +1087,40 @@
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.96</v>
+        <v>2.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
@@ -1213,16 +1213,16 @@
         <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.47</v>
@@ -1231,19 +1231,19 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
         <v>4.1</v>
@@ -1252,49 +1252,49 @@
         <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
         <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="n">
         <v>980</v>
@@ -1306,13 +1306,13 @@
         <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1348,28 +1348,28 @@
         <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="I7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.74</v>
+        <v>2.22</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
         <v>1.6</v>
@@ -1378,16 +1378,16 @@
         <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.45</v>
@@ -1402,10 +1402,10 @@
         <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
         <v>970</v>
@@ -1417,37 +1417,37 @@
         <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
         <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL7" t="n">
         <v>60</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -1483,7 +1483,7 @@
         <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I8" t="n">
         <v>2.62</v>
@@ -1501,16 +1501,16 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1525,10 +1525,10 @@
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
         <v>14</v>
@@ -1543,7 +1543,7 @@
         <v>980</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
@@ -1621,10 +1621,10 @@
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
@@ -1636,13 +1636,13 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
         <v>1.87</v>
@@ -1651,7 +1651,7 @@
         <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
         <v>1.78</v>
@@ -1660,10 +1660,10 @@
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
         <v>16</v>
@@ -1690,7 +1690,7 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
         <v>13.5</v>
@@ -1705,7 +1705,7 @@
         <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="I10" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>2.34</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V10" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
@@ -1906,22 +1906,22 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
         <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T11" t="n">
         <v>1.58</v>
@@ -1930,10 +1930,10 @@
         <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1945,10 +1945,10 @@
         <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
         <v>11.5</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2041,34 +2041,34 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
         <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
         <v>20</v>
@@ -2095,7 +2095,7 @@
         <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="n">
         <v>20</v>
@@ -2104,7 +2104,7 @@
         <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
         <v>130</v>
@@ -2122,7 +2122,7 @@
         <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2161,7 @@
         <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
@@ -2173,25 +2173,25 @@
         <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
         <v>1.8</v>
@@ -2203,7 +2203,7 @@
         <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
@@ -2221,7 +2221,7 @@
         <v>9.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
         <v>15.5</v>
@@ -2245,7 +2245,7 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
         <v>38</v>
@@ -2254,7 +2254,7 @@
         <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
         <v>46</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
         <v>1.86</v>
@@ -2299,10 +2299,10 @@
         <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.2</v>
@@ -2317,10 +2317,10 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R14" t="n">
         <v>1.85</v>
@@ -2329,13 +2329,13 @@
         <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
         <v>2.16</v>
@@ -2365,7 +2365,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2374,7 +2374,7 @@
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2428,16 +2428,16 @@
         <v>1.77</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -2446,40 +2446,40 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.26</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.24</v>
       </c>
       <c r="V15" t="n">
         <v>1.24</v>
       </c>
       <c r="W15" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
         <v>40</v>
@@ -2491,7 +2491,7 @@
         <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
         <v>19</v>
@@ -2503,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
@@ -2512,7 +2512,7 @@
         <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
         <v>16.5</v>
@@ -2524,7 +2524,7 @@
         <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO15" t="n">
         <v>55</v>
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G16" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="H16" t="n">
         <v>6.4</v>
       </c>
       <c r="I16" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="O16" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S16" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="U16" t="n">
         <v>1.64</v>
       </c>
       <c r="V16" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
         <v>70</v>
@@ -2629,7 +2629,7 @@
         <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2692,40 +2692,40 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="G17" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="I17" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
         <v>1.28</v>
@@ -2734,70 +2734,70 @@
         <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="W17" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB17" t="n">
         <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK17" t="n">
         <v>36</v>
       </c>
-      <c r="AF17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>30</v>
-      </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G18" t="n">
         <v>1.86</v>
@@ -2836,43 +2836,43 @@
         <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="T18" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
         <v>1.23</v>
@@ -2881,10 +2881,10 @@
         <v>2.16</v>
       </c>
       <c r="X18" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
         <v>42</v>
@@ -2893,19 +2893,19 @@
         <v>120</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
         <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2923,16 +2923,16 @@
         <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
         <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.6</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>3.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.85</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
@@ -2992,7 +2992,7 @@
         <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
         <v>1.9</v>
@@ -3001,7 +3001,7 @@
         <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.76</v>
@@ -3010,10 +3010,10 @@
         <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X19" t="n">
         <v>18</v>
@@ -3031,10 +3031,10 @@
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE19" t="n">
         <v>55</v>
@@ -3049,7 +3049,7 @@
         <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -3097,31 +3097,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="G20" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.32</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.24</v>
@@ -3130,28 +3130,28 @@
         <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
         <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="V20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
         <v>970</v>
@@ -3160,7 +3160,7 @@
         <v>38</v>
       </c>
       <c r="AA20" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB20" t="n">
         <v>970</v>
@@ -3172,7 +3172,7 @@
         <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF20" t="n">
         <v>970</v>
@@ -3187,13 +3187,13 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
         <v>85</v>
@@ -3202,7 +3202,7 @@
         <v>970</v>
       </c>
       <c r="AO20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -3235,25 +3235,25 @@
         <v>2.98</v>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
         <v>2.76</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
@@ -3274,16 +3274,16 @@
         <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U21" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
         <v>1.56</v>
       </c>
       <c r="W21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -670,10 +670,10 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
         <v>9.199999999999999</v>
@@ -682,7 +682,7 @@
         <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.23</v>
@@ -691,7 +691,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
@@ -700,13 +700,13 @@
         <v>2.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
         <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T2" t="n">
         <v>1.8</v>
@@ -718,7 +718,7 @@
         <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X2" t="n">
         <v>27</v>
@@ -727,16 +727,16 @@
         <v>38</v>
       </c>
       <c r="Z2" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA2" t="n">
         <v>270</v>
       </c>
       <c r="AB2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC2" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>15.5</v>
       </c>
       <c r="AD2" t="n">
         <v>36</v>
@@ -760,7 +760,7 @@
         <v>13.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
         <v>38</v>
@@ -769,7 +769,7 @@
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
         <v>130</v>
@@ -814,7 +814,7 @@
         <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>3.55</v>
@@ -844,7 +844,7 @@
         <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="n">
         <v>1.9</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>2.22</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.65</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
@@ -964,19 +964,19 @@
         <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>1.9</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
@@ -985,7 +985,7 @@
         <v>1.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.81</v>
@@ -1000,7 +1000,7 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
         <v>11</v>
@@ -1024,13 +1024,13 @@
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>600</v>
       </c>
       <c r="H5" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="I5" t="n">
         <v>1.45</v>
@@ -1087,10 +1087,10 @@
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1105,13 +1105,13 @@
         <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
         <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1123,7 +1123,7 @@
         <v>3.15</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>2.08</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H6" t="n">
         <v>3.75</v>
@@ -1222,7 +1222,7 @@
         <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.47</v>
@@ -1258,7 +1258,7 @@
         <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.98</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>970</v>
@@ -1435,7 +1435,7 @@
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1480,19 +1480,19 @@
         <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1501,7 +1501,7 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
@@ -1510,7 +1510,7 @@
         <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1519,16 +1519,16 @@
         <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="W8" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
         <v>14</v>
@@ -1564,7 +1564,7 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
         <v>75</v>
@@ -1615,19 +1615,19 @@
         <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.35</v>
@@ -1636,16 +1636,16 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>1.31</v>
@@ -1654,16 +1654,16 @@
         <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X9" t="n">
         <v>16</v>
@@ -1750,10 +1750,10 @@
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I10" t="n">
         <v>1.64</v>
@@ -1774,7 +1774,7 @@
         <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
         <v>2.18</v>
@@ -1783,13 +1783,13 @@
         <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
         <v>2.02</v>
@@ -1798,13 +1798,13 @@
         <v>2.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
         <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
         <v>10.5</v>
@@ -1813,7 +1813,7 @@
         <v>15.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
         <v>12.5</v>
@@ -1843,7 +1843,7 @@
         <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="I11" t="n">
         <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
         <v>4.4</v>
@@ -1909,31 +1909,31 @@
         <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
         <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1963,7 +1963,7 @@
         <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.71</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.72</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2050,13 +2050,13 @@
         <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
         <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
         <v>1.75</v>
@@ -2065,7 +2065,7 @@
         <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="W12" t="n">
         <v>1.23</v>
@@ -2083,10 +2083,10 @@
         <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>9.800000000000001</v>
@@ -2095,10 +2095,10 @@
         <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH12" t="n">
         <v>18.5</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.85</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
@@ -2173,7 +2173,7 @@
         <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>3.8</v>
@@ -2182,34 +2182,34 @@
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
         <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.8</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.81</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
         <v>26</v>
@@ -2218,19 +2218,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
         <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
@@ -2254,7 +2254,7 @@
         <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
         <v>46</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.85</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.86</v>
       </c>
       <c r="H14" t="n">
         <v>4.2</v>
@@ -2305,37 +2305,37 @@
         <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U14" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
         <v>2.16</v>
@@ -2344,7 +2344,7 @@
         <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
         <v>40</v>
@@ -2353,10 +2353,10 @@
         <v>80</v>
       </c>
       <c r="AB14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
         <v>17</v>
@@ -2365,7 +2365,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2389,7 +2389,7 @@
         <v>48</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO14" t="n">
         <v>23</v>
@@ -2455,7 +2455,7 @@
         <v>2.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
         <v>1.51</v>
@@ -2464,22 +2464,22 @@
         <v>2.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
         <v>1.24</v>
       </c>
       <c r="W15" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
         <v>20</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>21</v>
       </c>
       <c r="Z15" t="n">
         <v>40</v>
@@ -2509,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
         <v>18</v>
@@ -2518,7 +2518,7 @@
         <v>16.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
         <v>85</v>
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="G16" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="H16" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="I16" t="n">
         <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
         <v>2.16</v>
       </c>
       <c r="U16" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="V16" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
         <v>70</v>
@@ -2629,7 +2629,7 @@
         <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2650,10 +2650,10 @@
         <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2692,31 +2692,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="G17" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="I17" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O17" t="n">
         <v>1.42</v>
@@ -2728,64 +2728,64 @@
         <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>12.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK17" t="n">
         <v>46</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>36</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2797,7 +2797,7 @@
         <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G18" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,28 +2851,28 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="R18" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S18" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V18" t="n">
         <v>1.23</v>
@@ -2881,10 +2881,10 @@
         <v>2.16</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
         <v>42</v>
@@ -2893,43 +2893,43 @@
         <v>120</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>21</v>
       </c>
-      <c r="AE18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>23</v>
-      </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO18" t="n">
         <v>55</v>
@@ -2971,13 +2971,13 @@
         <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
@@ -3007,7 +3007,7 @@
         <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
         <v>1.36</v>
@@ -3106,13 +3106,13 @@
         <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
         <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.32</v>
@@ -3124,31 +3124,31 @@
         <v>4.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
         <v>2.24</v>
       </c>
       <c r="V20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -3190,7 +3190,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
         <v>36</v>
@@ -3235,7 +3235,7 @@
         <v>2.98</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
         <v>2.58</v>
@@ -3244,10 +3244,10 @@
         <v>2.76</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -3262,10 +3262,10 @@
         <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
         <v>1.24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -670,19 +670,19 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>1.23</v>
@@ -691,13 +691,13 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
         <v>1.64</v>
@@ -706,13 +706,13 @@
         <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T2" t="n">
         <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.12</v>
@@ -727,19 +727,19 @@
         <v>38</v>
       </c>
       <c r="Z2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA2" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="n">
         <v>130</v>
@@ -763,7 +763,7 @@
         <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>130</v>
@@ -772,7 +772,7 @@
         <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
@@ -814,10 +814,10 @@
         <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.48</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G4" t="n">
         <v>2.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.22</v>
       </c>
       <c r="H4" t="n">
         <v>3.65</v>
@@ -949,7 +949,7 @@
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
@@ -961,40 +961,40 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
         <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="V4" t="n">
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>15</v>
@@ -1024,7 +1024,7 @@
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>30</v>
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>600</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="I5" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
         <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
         <v>2.6</v>
@@ -1120,46 +1120,46 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="W5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6">
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
         <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>3.05</v>
@@ -1252,25 +1252,25 @@
         <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
         <v>980</v>
@@ -1282,19 +1282,19 @@
         <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
         <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
         <v>980</v>
@@ -1306,13 +1306,13 @@
         <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1348,52 +1348,52 @@
         <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
         <v>3.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.48</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>970</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>3.2</v>
@@ -1489,7 +1489,7 @@
         <v>2.64</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
         <v>3.5</v>
@@ -1507,7 +1507,7 @@
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
@@ -1516,7 +1516,7 @@
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
         <v>1.85</v>
@@ -1564,7 +1564,7 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
         <v>75</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
         <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
@@ -1660,7 +1660,7 @@
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W9" t="n">
         <v>1.71</v>
@@ -1669,13 +1669,13 @@
         <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
         <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
         <v>11.5</v>
@@ -1699,13 +1699,13 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
         <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1759,10 +1759,10 @@
         <v>1.64</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1.27</v>
@@ -1882,52 +1882,52 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
         <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
       </c>
       <c r="K11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
         <v>4.4</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V11" t="n">
         <v>1.43</v>
@@ -1948,7 +1948,7 @@
         <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
         <v>11.5</v>
@@ -2035,40 +2035,40 @@
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
         <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T12" t="n">
         <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
         <v>2.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
         <v>20</v>
@@ -2095,10 +2095,10 @@
         <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
         <v>18.5</v>
@@ -2119,10 +2119,10 @@
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G13" t="n">
         <v>2.22</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
@@ -2182,16 +2182,16 @@
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
         <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
         <v>1.79</v>
@@ -2200,10 +2200,10 @@
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
@@ -2218,7 +2218,7 @@
         <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
@@ -2242,7 +2242,7 @@
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2251,10 +2251,10 @@
         <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO13" t="n">
         <v>46</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H14" t="n">
         <v>4.2</v>
@@ -2299,10 +2299,10 @@
         <v>4.3</v>
       </c>
       <c r="J14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.23</v>
@@ -2320,19 +2320,19 @@
         <v>3.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T14" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U14" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>1.3</v>
@@ -2368,16 +2368,16 @@
         <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
         <v>38</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>15.5</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="G15" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
         <v>5.1</v>
@@ -2434,10 +2434,10 @@
         <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -2452,16 +2452,16 @@
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
         <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T15" t="n">
         <v>1.74</v>
@@ -2470,13 +2470,13 @@
         <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y15" t="n">
         <v>20</v>
@@ -2509,13 +2509,13 @@
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
         <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -2557,67 +2557,67 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="G16" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="H16" t="n">
         <v>7.2</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V16" t="n">
         <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2629,7 +2629,7 @@
         <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2641,19 +2641,19 @@
         <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
         <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2692,37 +2692,37 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="H17" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
         <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
         <v>2.18</v>
@@ -2734,58 +2734,58 @@
         <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>50</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>190</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO17" t="n">
         <v>36</v>
@@ -2827,49 +2827,49 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="n">
         <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q18" t="n">
         <v>1.61</v>
       </c>
       <c r="R18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
         <v>2.52</v>
       </c>
       <c r="T18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
         <v>2.24</v>
@@ -2878,16 +2878,16 @@
         <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
         <v>120</v>
@@ -2899,13 +2899,13 @@
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
@@ -2914,22 +2914,22 @@
         <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO18" t="n">
         <v>55</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
@@ -2986,88 +2986,88 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN19" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>20</v>
-      </c>
       <c r="AO19" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -3100,55 +3100,55 @@
         <v>1.94</v>
       </c>
       <c r="G20" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="S20" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="U20" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -3160,7 +3160,7 @@
         <v>38</v>
       </c>
       <c r="AA20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="n">
         <v>970</v>
@@ -3172,7 +3172,7 @@
         <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="n">
         <v>970</v>
@@ -3184,7 +3184,7 @@
         <v>970</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
         <v>29</v>
@@ -3196,13 +3196,13 @@
         <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
         <v>970</v>
       </c>
       <c r="AO20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -3247,7 +3247,7 @@
         <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -3262,10 +3262,10 @@
         <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R21" t="n">
         <v>1.24</v>
@@ -3298,7 +3298,7 @@
         <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
         <v>7.8</v>
@@ -3310,10 +3310,10 @@
         <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -667,37 +667,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="G2" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
         <v>1.64</v>
@@ -706,19 +706,19 @@
         <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="X2" t="n">
         <v>27</v>
@@ -727,52 +727,52 @@
         <v>38</v>
       </c>
       <c r="Z2" t="n">
-        <v>95</v>
+        <v>450</v>
       </c>
       <c r="AA2" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
         <v>38</v>
       </c>
       <c r="AE2" t="n">
-        <v>130</v>
+        <v>510</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.48</v>
@@ -835,7 +835,7 @@
         <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.25</v>
@@ -850,64 +850,64 @@
         <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ3" t="n">
         <v>100</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="AL3" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="AM3" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN3" t="n">
         <v>160</v>
       </c>
-      <c r="AN3" t="n">
-        <v>70</v>
-      </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H4" t="n">
         <v>3.65</v>
@@ -961,10 +961,10 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
         <v>2.08</v>
@@ -973,10 +973,10 @@
         <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
@@ -988,16 +988,16 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
         <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
         <v>70</v>
@@ -1009,13 +1009,13 @@
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1024,10 +1024,10 @@
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
         <v>24</v>
@@ -1036,13 +1036,13 @@
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1075,19 +1075,19 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1099,67 +1099,67 @@
         <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>2.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="V5" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AC5" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AH5" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.47</v>
@@ -1231,16 +1231,16 @@
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>1.1</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
@@ -1249,40 +1249,40 @@
         <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
         <v>980</v>
@@ -1294,7 +1294,7 @@
         <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AJ6" t="n">
         <v>980</v>
@@ -1306,13 +1306,13 @@
         <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J7" t="n">
         <v>2.96</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.4</v>
@@ -1378,76 +1378,76 @@
         <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
         <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
         <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO7" t="n">
         <v>38</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1480,61 +1480,61 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
         <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
         <v>980</v>
@@ -1546,10 +1546,10 @@
         <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
         <v>980</v>
@@ -1564,10 +1564,10 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AJ8" t="n">
-        <v>75</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1576,13 +1576,13 @@
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1642,22 +1642,22 @@
         <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
         <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.36</v>
@@ -1666,58 +1666,58 @@
         <v>1.71</v>
       </c>
       <c r="X9" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG9" t="n">
         <v>16</v>
       </c>
-      <c r="Y9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AH9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK9" t="n">
         <v>80</v>
       </c>
-      <c r="AB9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>980</v>
-      </c>
       <c r="AL9" t="n">
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>1.53</v>
       </c>
       <c r="I10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.27</v>
@@ -1801,58 +1801,58 @@
         <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>15.5</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>510</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
         <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.27</v>
@@ -1921,19 +1921,19 @@
         <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
         <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1945,46 +1945,46 @@
         <v>980</v>
       </c>
       <c r="AA11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN11" t="n">
         <v>55</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>980</v>
       </c>
       <c r="AO11" t="n">
         <v>980</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.71</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2044,13 +2044,13 @@
         <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
         <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
         <v>1.53</v>
@@ -2059,13 +2059,13 @@
         <v>2.82</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W12" t="n">
         <v>1.22</v>
@@ -2080,10 +2080,10 @@
         <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>9.800000000000001</v>
@@ -2095,7 +2095,7 @@
         <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="n">
         <v>20</v>
@@ -2119,7 +2119,7 @@
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AO12" t="n">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
@@ -2182,16 +2182,16 @@
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
         <v>1.79</v>
@@ -2218,7 +2218,7 @@
         <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
@@ -2248,10 +2248,10 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
         <v>16.5</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H14" t="n">
         <v>4.2</v>
@@ -2299,7 +2299,7 @@
         <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -2317,7 +2317,7 @@
         <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q14" t="n">
         <v>1.45</v>
@@ -2332,7 +2332,7 @@
         <v>1.47</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V14" t="n">
         <v>1.3</v>
@@ -2356,7 +2356,7 @@
         <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>17</v>
@@ -2365,19 +2365,19 @@
         <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
         <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>15.5</v>
@@ -2386,13 +2386,13 @@
         <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN14" t="n">
         <v>6.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -2458,13 +2458,13 @@
         <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
         <v>2.28</v>
@@ -2479,7 +2479,7 @@
         <v>19.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
         <v>40</v>
@@ -2491,7 +2491,7 @@
         <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
         <v>19</v>
@@ -2512,19 +2512,19 @@
         <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO15" t="n">
         <v>55</v>
@@ -2560,19 +2560,19 @@
         <v>1.49</v>
       </c>
       <c r="G16" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H16" t="n">
         <v>7.2</v>
       </c>
       <c r="I16" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.35</v>
@@ -2587,37 +2587,37 @@
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="R16" t="n">
         <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
         <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
         <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Z16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2629,7 +2629,7 @@
         <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2641,25 +2641,25 @@
         <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="G17" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="I17" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="J17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K17" t="n">
         <v>4.2</v>
       </c>
-      <c r="K17" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB17" t="n">
         <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG17" t="n">
         <v>12</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AH17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK17" t="n">
         <v>50</v>
       </c>
-      <c r="AF17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>65</v>
-      </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="H18" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I18" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,88 +2851,88 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="S18" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19">
@@ -2962,34 +2962,34 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2998,22 +2998,22 @@
         <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S19" t="n">
         <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X19" t="n">
         <v>15.5</v>
@@ -3022,16 +3022,16 @@
         <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
         <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
         <v>15</v>
@@ -3043,28 +3043,28 @@
         <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO19" t="n">
         <v>42</v>
@@ -3100,16 +3100,16 @@
         <v>1.94</v>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
@@ -3118,19 +3118,19 @@
         <v>1.31</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
         <v>5.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
         <v>2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R20" t="n">
         <v>1.55</v>
@@ -3148,31 +3148,31 @@
         <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
         <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AA20" t="n">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="AB20" t="n">
         <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="n">
         <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="n">
         <v>970</v>
@@ -3181,28 +3181,28 @@
         <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AJ20" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="G21" t="n">
         <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="I21" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -3262,82 +3262,82 @@
         <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
         <v>4.4</v>
       </c>
       <c r="T21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.92</v>
       </c>
-      <c r="U21" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="W21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
         <v>9.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB21" t="n">
         <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="n">
         <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.27</v>
@@ -691,22 +691,22 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="Q2" t="n">
         <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S2" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
         <v>1.86</v>
@@ -808,10 +808,10 @@
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
@@ -829,13 +829,13 @@
         <v>2.98</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
         <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
         <v>1.25</v>
@@ -847,16 +847,16 @@
         <v>1.92</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>8.6</v>
@@ -871,10 +871,10 @@
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
         <v>80</v>
@@ -889,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AK3" t="n">
         <v>370</v>
@@ -904,7 +904,7 @@
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
         <v>60</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.65</v>
@@ -955,13 +955,13 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
@@ -979,7 +979,7 @@
         <v>2.84</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="U4" t="n">
         <v>1.14</v>
@@ -988,13 +988,13 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
         <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
         <v>28</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>14</v>
@@ -1018,7 +1018,7 @@
         <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>16.5</v>
@@ -1027,7 +1027,7 @@
         <v>340</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
         <v>24</v>
@@ -1042,7 +1042,7 @@
         <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1078,19 +1078,19 @@
         <v>15.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="I5" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1102,40 +1102,40 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
         <v>1.74</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
         <v>1.72</v>
       </c>
       <c r="V5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X5" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
         <v>110</v>
@@ -1144,10 +1144,10 @@
         <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1216,10 +1216,10 @@
         <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>3.4</v>
@@ -1228,19 +1228,19 @@
         <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.1</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
@@ -1249,10 +1249,10 @@
         <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
         <v>1.34</v>
@@ -1273,7 +1273,7 @@
         <v>95</v>
       </c>
       <c r="AB6" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
@@ -1300,7 +1300,7 @@
         <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G7" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>2.96</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X7" t="n">
         <v>25</v>
@@ -1411,7 +1411,7 @@
         <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
@@ -1444,10 +1444,10 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1498,7 +1498,7 @@
         <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>3.05</v>
@@ -1510,7 +1510,7 @@
         <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1519,10 +1519,10 @@
         <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>1.6</v>
@@ -1531,7 +1531,7 @@
         <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
         <v>980</v>
@@ -1540,13 +1540,13 @@
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
         <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>980</v>
@@ -1561,13 +1561,13 @@
         <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
         <v>300</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
         <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1645,7 +1645,7 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
         <v>1.32</v>
@@ -1663,25 +1663,25 @@
         <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
@@ -1690,22 +1690,22 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
         <v>260</v>
       </c>
       <c r="AJ9" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1714,7 +1714,7 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
         <v>80</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
         <v>1.53</v>
       </c>
       <c r="I10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1795,49 +1795,49 @@
         <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>15.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK10" t="n">
         <v>510</v>
@@ -1849,10 +1849,10 @@
         <v>430</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="11">
@@ -1885,16 +1885,16 @@
         <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
@@ -1912,7 +1912,7 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
         <v>1.68</v>
@@ -1921,19 +1921,19 @@
         <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="T11" t="n">
         <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V11" t="n">
         <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1951,7 +1951,7 @@
         <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -1963,10 +1963,10 @@
         <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
         <v>980</v>
@@ -2023,10 +2023,10 @@
         <v>5.5</v>
       </c>
       <c r="H12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.69</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.7</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2053,19 +2053,19 @@
         <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
         <v>2.82</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="W12" t="n">
         <v>1.22</v>
@@ -2083,7 +2083,7 @@
         <v>16.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC12" t="n">
         <v>9.800000000000001</v>
@@ -2119,7 +2119,7 @@
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AO12" t="n">
         <v>8</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2209,7 +2209,7 @@
         <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
         <v>26</v>
@@ -2218,13 +2218,13 @@
         <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>44</v>
@@ -2236,7 +2236,7 @@
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
@@ -2245,13 +2245,13 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
         <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
         <v>16.5</v>
@@ -2299,7 +2299,7 @@
         <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -2317,13 +2317,13 @@
         <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="n">
         <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
         <v>2.06</v>
@@ -2332,13 +2332,13 @@
         <v>1.47</v>
       </c>
       <c r="U14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X14" t="n">
         <v>32</v>
@@ -2350,7 +2350,7 @@
         <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
         <v>17</v>
@@ -2359,7 +2359,7 @@
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
         <v>38</v>
@@ -2377,16 +2377,16 @@
         <v>36</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AN14" t="n">
         <v>6.4</v>
@@ -2434,7 +2434,7 @@
         <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
         <v>4.4</v>
@@ -2446,28 +2446,28 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
@@ -2476,22 +2476,22 @@
         <v>2.32</v>
       </c>
       <c r="X15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="n">
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
         <v>19</v>
@@ -2500,34 +2500,34 @@
         <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
         <v>9.6</v>
       </c>
       <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>18</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>17.5</v>
       </c>
       <c r="AK15" t="n">
         <v>15.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>7.2</v>
@@ -2572,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.35</v>
@@ -2587,10 +2587,10 @@
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.34</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
         <v>1.3</v>
@@ -2608,7 +2608,7 @@
         <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2617,40 +2617,40 @@
         <v>42</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
         <v>80</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH16" t="n">
         <v>75</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
         <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
         <v>140</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G17" t="n">
         <v>2.6</v>
@@ -2701,7 +2701,7 @@
         <v>2.66</v>
       </c>
       <c r="I17" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J17" t="n">
         <v>3.95</v>
@@ -2725,7 +2725,7 @@
         <v>1.83</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
         <v>1.28</v>
@@ -2734,10 +2734,10 @@
         <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="V17" t="n">
         <v>1.56</v>
@@ -2746,13 +2746,13 @@
         <v>1.62</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
         <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA17" t="n">
         <v>48</v>
@@ -2761,7 +2761,7 @@
         <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>12.5</v>
@@ -2770,25 +2770,25 @@
         <v>36</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
         <v>32</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
@@ -2836,7 +2836,7 @@
         <v>5.2</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>4.3</v>
@@ -2881,13 +2881,13 @@
         <v>2.4</v>
       </c>
       <c r="X18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z18" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="n">
         <v>150</v>
@@ -2905,31 +2905,31 @@
         <v>200</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
         <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO18" t="n">
         <v>300</v>
@@ -2971,7 +2971,7 @@
         <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
@@ -2983,7 +2983,7 @@
         <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
         <v>3.95</v>
@@ -2995,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
         <v>1.38</v>
@@ -3010,13 +3010,13 @@
         <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y19" t="n">
         <v>14.5</v>
@@ -3028,7 +3028,7 @@
         <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8</v>
@@ -3037,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
@@ -3046,13 +3046,13 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
         <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
@@ -3061,7 +3061,7 @@
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
         <v>16.5</v>
@@ -3100,16 +3100,16 @@
         <v>1.94</v>
       </c>
       <c r="G20" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>3.55</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
@@ -3118,7 +3118,7 @@
         <v>1.31</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>5.2</v>
@@ -3127,22 +3127,22 @@
         <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S20" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="T20" t="n">
         <v>1.54</v>
       </c>
       <c r="U20" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="V20" t="n">
         <v>1.33</v>
@@ -3187,13 +3187,13 @@
         <v>170</v>
       </c>
       <c r="AJ20" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
         <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.78</v>
       </c>
-      <c r="G21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.68</v>
-      </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -3274,16 +3274,16 @@
         <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.27</v>
@@ -691,13 +691,13 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
         <v>1.64</v>
@@ -706,73 +706,73 @@
         <v>1.58</v>
       </c>
       <c r="S2" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
         <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
         <v>3.3</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Z2" t="n">
-        <v>450</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AE2" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
         <v>1.25</v>
@@ -850,7 +850,7 @@
         <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -859,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z3" t="n">
         <v>14</v>
@@ -877,7 +877,7 @@
         <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
         <v>75</v>
@@ -889,7 +889,7 @@
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
         <v>200</v>
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
         <v>2.08</v>
@@ -976,31 +976,31 @@
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.07</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>1.14</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
         <v>11</v>
@@ -1009,10 +1009,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="n">
         <v>13.5</v>
@@ -1021,16 +1021,16 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
         <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1075,43 +1075,43 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
         <v>1.35</v>
       </c>
       <c r="I5" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
         <v>2.08</v>
@@ -1120,7 +1120,7 @@
         <v>1.72</v>
       </c>
       <c r="V5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W5" t="n">
         <v>1.08</v>
@@ -1132,7 +1132,7 @@
         <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
@@ -1219,19 +1219,19 @@
         <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1240,16 +1240,16 @@
         <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
         <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
         <v>1.96</v>
@@ -1258,7 +1258,7 @@
         <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1273,7 +1273,7 @@
         <v>95</v>
       </c>
       <c r="AB6" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
@@ -1297,10 +1297,10 @@
         <v>200</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1312,7 +1312,7 @@
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G7" t="n">
         <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
         <v>1.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -1393,10 +1393,10 @@
         <v>1.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
         <v>2.58</v>
@@ -1489,19 +1489,19 @@
         <v>2.66</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
@@ -1510,7 +1510,7 @@
         <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1528,7 +1528,7 @@
         <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
         <v>25</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
@@ -1630,13 +1630,13 @@
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
@@ -1645,7 +1645,7 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
         <v>1.32</v>
@@ -1663,7 +1663,7 @@
         <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X9" t="n">
         <v>28</v>
@@ -1690,7 +1690,7 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG9" t="n">
         <v>980</v>
@@ -1765,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1780,7 +1780,7 @@
         <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
         <v>1.47</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
@@ -1900,28 +1900,28 @@
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
         <v>1.68</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
         <v>1.64</v>
@@ -1933,7 +1933,7 @@
         <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1951,7 +1951,7 @@
         <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G12" t="n">
         <v>5.5</v>
@@ -2026,7 +2026,7 @@
         <v>1.68</v>
       </c>
       <c r="I12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2056,7 +2056,7 @@
         <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
         <v>1.75</v>
@@ -2065,13 +2065,13 @@
         <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="W12" t="n">
         <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
@@ -2170,7 +2170,7 @@
         <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
@@ -2194,7 +2194,7 @@
         <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
@@ -2203,13 +2203,13 @@
         <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
         <v>26</v>
@@ -2242,7 +2242,7 @@
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>22</v>
@@ -2290,7 +2290,7 @@
         <v>1.86</v>
       </c>
       <c r="G14" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H14" t="n">
         <v>4.2</v>
@@ -2305,13 +2305,13 @@
         <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.14</v>
@@ -2371,7 +2371,7 @@
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
         <v>36</v>
@@ -2383,10 +2383,10 @@
         <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AN14" t="n">
         <v>6.4</v>
@@ -2437,7 +2437,7 @@
         <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -2455,16 +2455,16 @@
         <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U15" t="n">
         <v>2.34</v>
@@ -2473,7 +2473,7 @@
         <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2515,7 +2515,7 @@
         <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -2527,7 +2527,7 @@
         <v>8.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2557,43 +2557,43 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q16" t="n">
         <v>1.99</v>
       </c>
       <c r="R16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S16" t="n">
         <v>3.6</v>
@@ -2602,13 +2602,13 @@
         <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V16" t="n">
         <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2617,13 +2617,13 @@
         <v>42</v>
       </c>
       <c r="Z16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="AC16" t="n">
         <v>42</v>
@@ -2632,7 +2632,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
         <v>40</v>
@@ -2644,7 +2644,7 @@
         <v>75</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
         <v>900</v>
@@ -2656,7 +2656,7 @@
         <v>140</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>29</v>
@@ -2698,94 +2698,94 @@
         <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W17" t="n">
         <v>1.62</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="n">
         <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
         <v>32</v>
       </c>
       <c r="AI17" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
         <v>300</v>
@@ -2794,10 +2794,10 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,64 +2827,64 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
         <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R18" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="S18" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V18" t="n">
         <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
         <v>130</v>
@@ -2893,13 +2893,13 @@
         <v>150</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>200</v>
@@ -2914,22 +2914,22 @@
         <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
         <v>300</v>
@@ -2968,10 +2968,10 @@
         <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
@@ -2995,13 +2995,13 @@
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R19" t="n">
         <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.76</v>
@@ -3010,16 +3010,16 @@
         <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X19" t="n">
         <v>14.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
         <v>26</v>
@@ -3052,7 +3052,7 @@
         <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
         <v>4.1</v>
@@ -3121,22 +3121,22 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
         <v>1.54</v>
@@ -3145,10 +3145,10 @@
         <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="X20" t="n">
         <v>32</v>
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="I21" t="n">
         <v>2.86</v>
@@ -3253,7 +3253,7 @@
         <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
@@ -3262,7 +3262,7 @@
         <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q21" t="n">
         <v>2.28</v>
@@ -3274,10 +3274,10 @@
         <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>1.53</v>
@@ -3337,7 +3337,7 @@
         <v>42</v>
       </c>
       <c r="AO21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H2" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
         <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="Z2" t="n">
         <v>980</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>95</v>
@@ -745,13 +745,13 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AI2" t="n">
         <v>290</v>
@@ -760,16 +760,16 @@
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,19 +805,19 @@
         <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I3" t="n">
         <v>2.38</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.5</v>
@@ -826,7 +826,7 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
         <v>1.43</v>
@@ -841,7 +841,7 @@
         <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.92</v>
@@ -850,7 +850,7 @@
         <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -865,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="AA3" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -877,19 +877,19 @@
         <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AG3" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
         <v>200</v>
@@ -898,7 +898,7 @@
         <v>370</v>
       </c>
       <c r="AL3" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
@@ -907,7 +907,7 @@
         <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -961,16 +961,16 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
@@ -997,16 +997,16 @@
         <v>30</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
         <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>15</v>
@@ -1015,7 +1015,7 @@
         <v>110</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1024,25 +1024,25 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
       </c>
       <c r="AL4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO4" t="n">
         <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="I5" t="n">
         <v>1.41</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1099,10 +1099,10 @@
         <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1114,13 +1114,13 @@
         <v>2.82</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="W5" t="n">
         <v>1.08</v>
@@ -1132,7 +1132,7 @@
         <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
@@ -1207,73 +1207,73 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
         <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
@@ -1288,7 +1288,7 @@
         <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1297,13 +1297,13 @@
         <v>200</v>
       </c>
       <c r="AJ6" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
         <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
         <v>1.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1444,10 +1444,10 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1483,16 +1483,16 @@
         <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.47</v>
@@ -1504,13 +1504,13 @@
         <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1525,7 +1525,7 @@
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
         <v>1.45</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
         <v>980</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1645,25 +1645,25 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
         <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
         <v>28</v>
@@ -1681,7 +1681,7 @@
         <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
@@ -1717,7 +1717,7 @@
         <v>55</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G10" t="n">
         <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1777,25 +1777,25 @@
         <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
         <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
         <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
@@ -1804,7 +1804,7 @@
         <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z10" t="n">
         <v>10.5</v>
@@ -1816,7 +1816,7 @@
         <v>65</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
@@ -1828,7 +1828,7 @@
         <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
@@ -1891,7 +1891,7 @@
         <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
@@ -1921,10 +1921,10 @@
         <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
         <v>2.34</v>
@@ -1933,7 +1933,7 @@
         <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -2020,13 +2020,13 @@
         <v>5.3</v>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2035,7 +2035,7 @@
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2050,31 +2050,31 @@
         <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>11</v>
@@ -2086,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
         <v>9.800000000000001</v>
@@ -2098,7 +2098,7 @@
         <v>44</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH12" t="n">
         <v>18.5</v>
@@ -2110,16 +2110,16 @@
         <v>130</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="n">
         <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO12" t="n">
         <v>8</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
@@ -2170,13 +2170,13 @@
         <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2194,58 +2194,58 @@
         <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
         <v>36</v>
@@ -2254,7 +2254,7 @@
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
         <v>46</v>
@@ -2287,91 +2287,91 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.45</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.47</v>
-      </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
         <v>32</v>
       </c>
-      <c r="Y14" t="n">
-        <v>29</v>
-      </c>
       <c r="Z14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
         <v>85</v>
       </c>
       <c r="AB14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF14" t="n">
         <v>17</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
         <v>36</v>
@@ -2383,16 +2383,16 @@
         <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>42</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -2422,76 +2422,76 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="H15" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.2</v>
       </c>
-      <c r="K15" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
         <v>19</v>
@@ -2500,34 +2500,34 @@
         <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
         <v>9.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -2560,55 +2560,55 @@
         <v>1.53</v>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I16" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T16" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V16" t="n">
         <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2623,7 +2623,7 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.2</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
         <v>42</v>
@@ -2650,7 +2650,7 @@
         <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="n">
         <v>140</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I17" t="n">
         <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="V17" t="n">
         <v>1.55</v>
       </c>
       <c r="W17" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X17" t="n">
         <v>13.5</v>
@@ -2755,34 +2755,34 @@
         <v>17.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AB17" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="n">
         <v>34</v>
@@ -2794,10 +2794,10 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -2827,109 +2827,109 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="S18" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="T18" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="X18" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="Z18" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AA18" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>200</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>260</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AO18" t="n">
         <v>300</v>
@@ -2980,34 +2980,34 @@
         <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
         <v>1.36</v>
@@ -3019,7 +3019,7 @@
         <v>14.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
         <v>26</v>
@@ -3028,7 +3028,7 @@
         <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
         <v>8</v>
@@ -3037,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
@@ -3049,7 +3049,7 @@
         <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
         <v>28</v>
@@ -3061,13 +3061,13 @@
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -3109,7 +3109,7 @@
         <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
@@ -3145,7 +3145,7 @@
         <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
         <v>1.98</v>
@@ -3160,7 +3160,7 @@
         <v>95</v>
       </c>
       <c r="AA20" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
         <v>970</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I21" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -3250,37 +3250,37 @@
         <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
         <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W21" t="n">
         <v>1.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="G2" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
         <v>1.32</v>
@@ -691,10 +691,10 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>2.3</v>
@@ -703,76 +703,76 @@
         <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="U2" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="W2" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>770</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3">
@@ -805,19 +805,19 @@
         <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.5</v>
@@ -826,7 +826,7 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>1.43</v>
@@ -835,7 +835,7 @@
         <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
         <v>1.25</v>
@@ -844,13 +844,13 @@
         <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U3" t="n">
         <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -880,10 +880,10 @@
         <v>80</v>
       </c>
       <c r="AF3" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>22</v>
@@ -898,7 +898,7 @@
         <v>370</v>
       </c>
       <c r="AL3" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
@@ -907,7 +907,7 @@
         <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
         <v>2.14</v>
@@ -955,34 +955,34 @@
         <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
         <v>1.33</v>
@@ -991,22 +991,22 @@
         <v>1.88</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
         <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
         <v>15</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
@@ -1036,7 +1036,7 @@
         <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
         <v>60</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="I5" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.35</v>
@@ -1099,10 +1099,10 @@
         <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1111,19 +1111,19 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1150,7 +1150,7 @@
         <v>970</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG5" t="n">
         <v>150</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
@@ -1273,43 +1273,43 @@
         <v>260</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1348,16 +1348,16 @@
         <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I7" t="n">
         <v>3.15</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>1.53</v>
@@ -1366,37 +1366,37 @@
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O7" t="n">
         <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="R7" t="n">
         <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
         <v>1.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1411,7 +1411,7 @@
         <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
@@ -1483,10 +1483,10 @@
         <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1495,7 +1495,7 @@
         <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
@@ -1507,10 +1507,10 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1519,13 +1519,13 @@
         <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W8" t="n">
         <v>1.45</v>
@@ -1567,7 +1567,7 @@
         <v>300</v>
       </c>
       <c r="AJ8" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1618,13 +1618,13 @@
         <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>3.7</v>
@@ -1639,7 +1639,7 @@
         <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.9</v>
@@ -1651,10 +1651,10 @@
         <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
@@ -1690,7 +1690,7 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
         <v>980</v>
@@ -1765,7 +1765,7 @@
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1783,10 +1783,10 @@
         <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
         <v>1.81</v>
@@ -1795,7 +1795,7 @@
         <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
@@ -1846,7 +1846,7 @@
         <v>400</v>
       </c>
       <c r="AM10" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>120</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
@@ -1906,34 +1906,34 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1951,7 +1951,7 @@
         <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -1975,7 +1975,7 @@
         <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="G12" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="I12" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="J12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -2050,40 +2050,40 @@
         <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
         <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="W12" t="n">
         <v>1.23</v>
       </c>
       <c r="X12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
         <v>21</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>22</v>
       </c>
       <c r="AC12" t="n">
         <v>9.6</v>
@@ -2092,28 +2092,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
         <v>60</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>80</v>
@@ -2122,7 +2122,7 @@
         <v>60</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
@@ -2188,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
         <v>3.55</v>
@@ -2200,10 +2200,10 @@
         <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W13" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
@@ -2218,10 +2218,10 @@
         <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
         <v>15</v>
@@ -2230,34 +2230,34 @@
         <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
         <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.82</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.83</v>
-      </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
         <v>4.5</v>
@@ -2305,94 +2305,94 @@
         <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="U14" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
         <v>2.2</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>42</v>
       </c>
-      <c r="AA14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>40</v>
-      </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL14" t="n">
         <v>22</v>
       </c>
-      <c r="AK14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>21</v>
-      </c>
       <c r="AM14" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="G15" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
         <v>1.48</v>
@@ -2464,70 +2464,70 @@
         <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
         <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
         <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
         <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2563,7 +2563,7 @@
         <v>1.6</v>
       </c>
       <c r="H16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I16" t="n">
         <v>9.4</v>
@@ -2572,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
@@ -2596,13 +2596,13 @@
         <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
         <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
         <v>1.12</v>
@@ -2650,7 +2650,7 @@
         <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
         <v>140</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G17" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="H17" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I17" t="n">
         <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>1.51</v>
@@ -2716,49 +2716,49 @@
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
         <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="U17" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
         <v>1.55</v>
       </c>
       <c r="W17" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="X17" t="n">
         <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
         <v>17.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC17" t="n">
         <v>9.6</v>
@@ -2767,37 +2767,37 @@
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="n">
         <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>300</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.53</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W18" t="n">
         <v>2.28</v>
       </c>
-      <c r="T18" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.58</v>
-      </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
         <v>48</v>
       </c>
       <c r="Z18" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>260</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
         <v>3.75</v>
@@ -2977,7 +2977,7 @@
         <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
         <v>1.42</v>
@@ -2986,16 +2986,16 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R19" t="n">
         <v>1.37</v>
@@ -3004,7 +3004,7 @@
         <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U19" t="n">
         <v>2.18</v>
@@ -3031,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
         <v>15</v>
@@ -3046,7 +3046,7 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>55</v>
@@ -3064,7 +3064,7 @@
         <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>44</v>
@@ -3124,13 +3124,13 @@
         <v>5.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
         <v>2.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
         <v>1.59</v>
@@ -3142,7 +3142,7 @@
         <v>1.54</v>
       </c>
       <c r="U20" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="V20" t="n">
         <v>1.33</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="I21" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
         <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -3265,7 +3265,7 @@
         <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
@@ -3274,28 +3274,28 @@
         <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U21" t="n">
         <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W21" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="n">
         <v>10.5</v>
@@ -3307,16 +3307,16 @@
         <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
         <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
         <v>55</v>
@@ -3325,19 +3325,19 @@
         <v>55</v>
       </c>
       <c r="AK21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="n">
         <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G2" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="H2" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I2" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.32</v>
@@ -694,55 +694,55 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
         <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
         <v>1.06</v>
       </c>
       <c r="W2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="AA2" t="n">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AF2" t="n">
         <v>7.8</v>
@@ -754,19 +754,19 @@
         <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
@@ -820,7 +820,7 @@
         <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -829,37 +829,37 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R3" t="n">
         <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
         <v>14</v>
@@ -868,37 +868,37 @@
         <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="n">
         <v>75</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AK3" t="n">
         <v>370</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
@@ -907,7 +907,7 @@
         <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -940,25 +940,25 @@
         <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.95</v>
       </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>4.2</v>
@@ -967,52 +967,52 @@
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
         <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X4" t="n">
         <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
         <v>13</v>
@@ -1021,7 +1021,7 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
         <v>260</v>
@@ -1030,19 +1030,19 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
         <v>1.38</v>
       </c>
       <c r="I5" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.35</v>
@@ -1096,31 +1096,31 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="W5" t="n">
         <v>1.1</v>
@@ -1129,13 +1129,13 @@
         <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="n">
         <v>110</v>
@@ -1144,13 +1144,13 @@
         <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="n">
         <v>150</v>
@@ -1207,100 +1207,100 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="O6" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.44</v>
+        <v>2.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AA6" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AG6" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="J7" t="n">
         <v>3.05</v>
@@ -1366,37 +1366,37 @@
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P7" t="n">
         <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.48</v>
@@ -1507,10 +1507,10 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1519,19 +1519,19 @@
         <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
         <v>980</v>
@@ -1540,13 +1540,13 @@
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
         <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
         <v>980</v>
@@ -1561,13 +1561,13 @@
         <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
         <v>300</v>
       </c>
       <c r="AJ8" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
         <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1651,22 +1651,22 @@
         <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W9" t="n">
         <v>1.74</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
@@ -1678,10 +1678,10 @@
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
@@ -1690,13 +1690,13 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AI9" t="n">
         <v>260</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="G10" t="n">
         <v>7.2</v>
@@ -1762,7 +1762,7 @@
         <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1795,7 +1795,7 @@
         <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
@@ -1825,16 +1825,16 @@
         <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
         <v>220</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
@@ -1909,31 +1909,31 @@
         <v>4.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
         <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1975,7 +1975,7 @@
         <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.1</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>5.2</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.74</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.23</v>
-      </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG12" t="n">
         <v>11</v>
       </c>
-      <c r="Z12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AH12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO12" t="n">
         <v>42</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>8.4</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.32</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.38</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.74</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -2293,10 +2293,10 @@
         <v>1.82</v>
       </c>
       <c r="H14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.5</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2311,61 +2311,61 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S14" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="U14" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
         <v>90</v>
       </c>
       <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF14" t="n">
         <v>16</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>15</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2374,25 +2374,25 @@
         <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL14" t="n">
         <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2446,25 +2446,25 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
         <v>1.82</v>
       </c>
       <c r="R15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
         <v>2.28</v>
@@ -2476,10 +2476,10 @@
         <v>2.12</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
@@ -2509,10 +2509,10 @@
         <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
@@ -2524,10 +2524,10 @@
         <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -2563,49 +2563,49 @@
         <v>1.6</v>
       </c>
       <c r="H16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
         <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
         <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V16" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
         <v>2.66</v>
@@ -2623,7 +2623,7 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
         <v>42</v>
@@ -2635,7 +2635,7 @@
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AG16" t="n">
         <v>40</v>
@@ -2647,7 +2647,7 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK16" t="n">
         <v>970</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q17" t="n">
         <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="W17" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="X17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD17" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13</v>
-      </c>
       <c r="AE17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
         <v>38</v>
       </c>
-      <c r="AF17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>34</v>
-      </c>
       <c r="AI17" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
         <v>100</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -2827,70 +2827,70 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="G18" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R18" t="n">
         <v>1.65</v>
       </c>
       <c r="S18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T18" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="U18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W18" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="X18" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Y18" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="Z18" t="n">
         <v>130</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB18" t="n">
         <v>14.5</v>
@@ -2899,19 +2899,19 @@
         <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>160</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
         <v>260</v>
@@ -2920,16 +2920,16 @@
         <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL18" t="n">
         <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO18" t="n">
         <v>310</v>
@@ -2965,16 +2965,16 @@
         <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
         <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
         <v>3.65</v>
@@ -2986,40 +2986,40 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T19" t="n">
         <v>1.81</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
         <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
         <v>26</v>
@@ -3028,7 +3028,7 @@
         <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC19" t="n">
         <v>7.8</v>
@@ -3040,13 +3040,13 @@
         <v>44</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>55</v>
@@ -3061,19 +3061,19 @@
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,96 +3083,96 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Club Independiente Petrolero</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.96</v>
+        <v>1.53</v>
       </c>
       <c r="G20" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>2.94</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="R20" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="S20" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="T20" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
         <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
         <v>970</v>
@@ -3181,163 +3181,433 @@
         <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AO20" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Club Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X21" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>2025-12-02</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Gremio</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G22" t="n">
         <v>3.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="H22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J22" t="n">
         <v>3.3</v>
       </c>
-      <c r="L21" t="n">
+      <c r="K22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L22" t="n">
         <v>1.51</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M22" t="n">
         <v>1.1</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N22" t="n">
         <v>3.15</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="O22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.71</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="Q22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S22" t="n">
         <v>4.5</v>
       </c>
-      <c r="T21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="T22" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.46</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X22" t="n">
         <v>11</v>
       </c>
-      <c r="Y21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
         <v>16</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA22" t="n">
         <v>40</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB22" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC22" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Platense FC</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
         <v>13</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AC23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD23" t="n">
         <v>34</v>
       </c>
-      <c r="AF21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>34</v>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.29</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="V2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>340</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>730</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AK2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL2" t="n">
         <v>270</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,55 +802,55 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -859,7 +859,7 @@
         <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
         <v>14</v>
@@ -874,16 +874,16 @@
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -892,10 +892,10 @@
         <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>250</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="AL3" t="n">
         <v>200</v>
@@ -904,10 +904,10 @@
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>2.12</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
@@ -955,34 +955,34 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
         <v>1.33</v>
@@ -991,25 +991,25 @@
         <v>1.89</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>55</v>
@@ -1021,28 +1021,28 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
         <v>260</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL4" t="n">
         <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,88 +1072,88 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="I5" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="W5" t="n">
         <v>1.1</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>180</v>
+        <v>12.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>70</v>
+        <v>17.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="n">
         <v>85</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="6">
@@ -1207,94 +1207,94 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
         <v>990</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AF6" t="n">
         <v>28</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AJ6" t="n">
         <v>140</v>
@@ -1342,40 +1342,40 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
@@ -1387,16 +1387,16 @@
         <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1408,7 +1408,7 @@
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
@@ -1417,25 +1417,25 @@
         <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AH7" t="n">
         <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="AK7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="n">
         <v>300</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
         <v>3.3</v>
@@ -1492,7 +1492,7 @@
         <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
         <v>1.48</v>
@@ -1510,7 +1510,7 @@
         <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1519,55 +1519,55 @@
         <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="n">
         <v>300</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1582,7 +1582,7 @@
         <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1639,7 +1639,7 @@
         <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
         <v>1.9</v>
@@ -1651,22 +1651,22 @@
         <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
@@ -1693,7 +1693,7 @@
         <v>32</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="n">
         <v>960</v>
@@ -1747,55 +1747,55 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="G10" t="n">
         <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
         <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
         <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
@@ -1810,10 +1810,10 @@
         <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AB10" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AC10" t="n">
         <v>10.5</v>
@@ -1825,7 +1825,7 @@
         <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="n">
         <v>48</v>
@@ -1834,7 +1834,7 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>220</v>
@@ -1849,10 +1849,10 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1906,34 +1906,34 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
         <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1942,52 +1942,52 @@
         <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>470</v>
       </c>
       <c r="AB11" t="n">
         <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
         <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.32</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.34</v>
       </c>
       <c r="H12" t="n">
         <v>3.55</v>
@@ -2029,52 +2029,52 @@
         <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
         <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
         <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
         <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
         <v>23</v>
@@ -2092,7 +2092,7 @@
         <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2101,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
         <v>48</v>
@@ -2110,16 +2110,16 @@
         <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
         <v>42</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
         <v>1.74</v>
@@ -2164,13 +2164,13 @@
         <v>1.75</v>
       </c>
       <c r="J13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.3</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2182,10 +2182,10 @@
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>1.54</v>
@@ -2197,16 +2197,16 @@
         <v>1.71</v>
       </c>
       <c r="U13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
         <v>2.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
@@ -2221,19 +2221,19 @@
         <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
         <v>9.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF13" t="n">
         <v>42</v>
       </c>
       <c r="AG13" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
         <v>17.5</v>
@@ -2245,13 +2245,13 @@
         <v>120</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
         <v>60</v>
@@ -2293,10 +2293,10 @@
         <v>1.82</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2311,7 +2311,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.14</v>
@@ -2338,19 +2338,19 @@
         <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
         <v>42</v>
       </c>
       <c r="AA14" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
         <v>17</v>
@@ -2374,7 +2374,7 @@
         <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -2386,13 +2386,13 @@
         <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN14" t="n">
         <v>6.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -2434,40 +2434,40 @@
         <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
         <v>1.27</v>
@@ -2479,7 +2479,7 @@
         <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
@@ -2506,7 +2506,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
         <v>50</v>
@@ -2521,10 +2521,10 @@
         <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
         <v>50</v>
@@ -2560,109 +2560,109 @@
         <v>1.53</v>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB16" t="n">
         <v>7</v>
       </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="X16" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC16" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG16" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ16" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="AN16" t="n">
         <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
@@ -2695,28 +2695,28 @@
         <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
         <v>1.45</v>
@@ -2725,43 +2725,43 @@
         <v>1.73</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R17" t="n">
         <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
         <v>1.51</v>
       </c>
       <c r="W17" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X17" t="n">
         <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
         <v>120</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
         <v>13.5</v>
@@ -2770,19 +2770,19 @@
         <v>40</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="n">
         <v>32</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
         <v>4.6</v>
@@ -2872,19 +2872,19 @@
         <v>1.6</v>
       </c>
       <c r="U18" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X18" t="n">
         <v>48</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="Z18" t="n">
         <v>130</v>
@@ -2896,13 +2896,13 @@
         <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="n">
         <v>15.5</v>
@@ -2911,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>260</v>
@@ -2932,7 +2932,7 @@
         <v>7.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>310</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2965,16 +2965,16 @@
         <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
         <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
         <v>3.65</v>
@@ -2995,7 +2995,7 @@
         <v>1.93</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
         <v>1.35</v>
@@ -3004,16 +3004,16 @@
         <v>3.65</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
         <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="X19" t="n">
         <v>13.5</v>
@@ -3025,13 +3025,13 @@
         <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
         <v>9.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
         <v>15</v>
@@ -3064,7 +3064,7 @@
         <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
         <v>46</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="G20" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>2.94</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3127,37 +3127,37 @@
         <v>1.23</v>
       </c>
       <c r="P20" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.18</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3169,10 +3169,10 @@
         <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
         <v>970</v>
@@ -3181,19 +3181,19 @@
         <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>970</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
         <v>4.2</v>
@@ -3256,34 +3256,34 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="S21" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U21" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="V21" t="n">
         <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X21" t="n">
         <v>32</v>
@@ -3301,7 +3301,7 @@
         <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
@@ -3325,7 +3325,7 @@
         <v>900</v>
       </c>
       <c r="AK21" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
         <v>80</v>
@@ -3337,7 +3337,7 @@
         <v>55</v>
       </c>
       <c r="AO21" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>2.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J22" t="n">
         <v>3.3</v>
@@ -3391,31 +3391,31 @@
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
         <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U22" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W22" t="n">
         <v>1.46</v>
@@ -3442,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
         <v>20</v>
@@ -3553,7 +3553,7 @@
         <v>1.11</v>
       </c>
       <c r="W23" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="X23" t="n">
         <v>30</v>
@@ -3589,7 +3589,7 @@
         <v>27</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
         <v>16.5</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hong Kong Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kitchee SC</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Eastern District SA</t>
+          <t>Lokomotiv Sofia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
+        <v>330</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J2" t="n">
         <v>1.63</v>
       </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>2.24</v>
       </c>
       <c r="L2" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="O2" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>1.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.64</v>
+        <v>1.11</v>
       </c>
       <c r="X2" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>2.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>95</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia</t>
+          <t>FC Groningen</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.75</v>
+        <v>1.08</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1.09</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>80</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>160</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>13.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.48</v>
+        <v>1.45</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>13.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>2.96</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>870</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>150</v>
+        <v>990</v>
       </c>
       <c r="AL3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>FC Van Yerevan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Groningen</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1.37</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>1.02</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>1.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.07</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
         <v>55</v>
       </c>
-      <c r="AF4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>260</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Armenian Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Van Yerevan</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>9.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>12.5</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF5" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG5" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Fk Velez Mostar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
-        <v>2.28</v>
+        <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="O6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.59</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
-        <v>8.4</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="AF6" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>960</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AK6" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,109 +1333,109 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fk Velez Mostar</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="AJ7" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="AK7" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
         <v>300</v>
@@ -1463,111 +1463,111 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.66</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AJ8" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>7.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>1.57</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>1.58</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>2.66</v>
       </c>
       <c r="W9" t="n">
-        <v>1.82</v>
+        <v>1.16</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>900</v>
+        <v>27</v>
       </c>
       <c r="AB9" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH9" t="n">
         <v>40</v>
       </c>
-      <c r="AH9" t="n">
-        <v>960</v>
-      </c>
       <c r="AI9" t="n">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>510</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>400</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.2</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>1.57</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>3.35</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>2.66</v>
+        <v>1.43</v>
       </c>
       <c r="W10" t="n">
-        <v>1.16</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>90</v>
       </c>
       <c r="AA10" t="n">
-        <v>27</v>
+        <v>470</v>
       </c>
       <c r="AB10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK10" t="n">
         <v>44</v>
       </c>
-      <c r="AC10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>510</v>
-      </c>
       <c r="AL10" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.6</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G11" t="n">
         <v>2.34</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
         <v>1.74</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>470</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK11" t="n">
         <v>23</v>
       </c>
-      <c r="AE11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>44</v>
-      </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.3</v>
+        <v>5.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>5.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>1.73</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>1.74</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>2.34</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.1</v>
+        <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>5.2</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>1.74</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.12</v>
       </c>
       <c r="T13" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.98</v>
       </c>
       <c r="V13" t="n">
-        <v>2.32</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>2.2</v>
       </c>
       <c r="X13" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL13" t="n">
         <v>21</v>
       </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AM13" t="n">
         <v>42</v>
       </c>
-      <c r="AG13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>90</v>
-      </c>
       <c r="AN13" t="n">
-        <v>60</v>
+        <v>6.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.199999999999999</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="G14" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.25</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.14</v>
-      </c>
       <c r="P14" t="n">
-        <v>3.15</v>
+        <v>2.26</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W14" t="n">
         <v>2.1</v>
       </c>
-      <c r="T14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
         <v>17</v>
       </c>
-      <c r="AC14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>18</v>
-      </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="G15" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="H15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.6</v>
       </c>
-      <c r="I15" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>2.18</v>
       </c>
       <c r="U15" t="n">
-        <v>2.32</v>
+        <v>1.68</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="AB15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC15" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>46</v>
       </c>
       <c r="AE15" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="G16" t="n">
-        <v>1.61</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>7.6</v>
+        <v>2.96</v>
       </c>
       <c r="I16" t="n">
-        <v>9.4</v>
+        <v>3.05</v>
       </c>
       <c r="J16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.9</v>
       </c>
-      <c r="K16" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P16" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="R16" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="W16" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
         <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>34</v>
       </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK16" t="n">
         <v>32</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>18.5</v>
       </c>
       <c r="AL16" t="n">
         <v>130</v>
       </c>
       <c r="AM16" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO16" t="n">
-        <v>280</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>1.74</v>
       </c>
       <c r="G17" t="n">
-        <v>2.56</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.98</v>
+        <v>5.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>5.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>1.73</v>
+        <v>2.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="S17" t="n">
-        <v>4.4</v>
+        <v>2.32</v>
       </c>
       <c r="T17" t="n">
-        <v>1.99</v>
+        <v>1.6</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="W17" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="X17" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB17" t="n">
         <v>14</v>
       </c>
-      <c r="Y17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="G18" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>2.72</v>
+        <v>1.91</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.54</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>2.32</v>
+        <v>3.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="X18" t="n">
-        <v>48</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>48</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN18" t="n">
         <v>17.5</v>
       </c>
-      <c r="AL18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AO18" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W19" t="n">
         <v>2.02</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.82</v>
-      </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,96 +3083,96 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Club Independiente Petrolero</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.94</v>
       </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.06</v>
-      </c>
       <c r="X20" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
         <v>970</v>
       </c>
       <c r="AC20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD20" t="n">
         <v>970</v>
       </c>
-      <c r="AD20" t="n">
-        <v>24</v>
-      </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="n">
         <v>970</v>
@@ -3181,34 +3181,34 @@
         <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Club Independiente Petrolero</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.98</v>
+        <v>3.05</v>
       </c>
       <c r="G21" t="n">
-        <v>2.06</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.65</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2.64</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>1.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="R21" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="S21" t="n">
-        <v>2.58</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="U21" t="n">
-        <v>2.36</v>
+        <v>1.99</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.94</v>
+        <v>1.46</v>
       </c>
       <c r="X21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE21" t="n">
         <v>32</v>
       </c>
-      <c r="Y21" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AF21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK21" t="n">
         <v>42</v>
       </c>
-      <c r="AD21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AL21" t="n">
         <v>60</v>
       </c>
-      <c r="AI21" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>80</v>
-      </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO21" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,260 +3353,125 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>1.43</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="H22" t="n">
-        <v>2.6</v>
+        <v>6.8</v>
       </c>
       <c r="I22" t="n">
-        <v>2.66</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>1.74</v>
+        <v>2.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.59</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>2.38</v>
       </c>
       <c r="T22" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
-        <v>1.6</v>
+        <v>1.12</v>
       </c>
       <c r="W22" t="n">
-        <v>1.46</v>
+        <v>2.84</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>14.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>44</v>
+        <v>6.2</v>
       </c>
       <c r="AO22" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="X23" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO23" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>330</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
-        <v>1.94</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.63</v>
+        <v>2.24</v>
       </c>
       <c r="K2" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="N2" t="n">
-        <v>2.06</v>
+        <v>1.44</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="R2" t="n">
         <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.08</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>1.11</v>
+        <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="n">
-        <v>990</v>
+        <v>550</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>170</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Fk Velez Mostar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Groningen</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.08</v>
+        <v>2.72</v>
       </c>
       <c r="G3" t="n">
-        <v>1.09</v>
+        <v>2.98</v>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>160</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>13.5</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>3.15</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.06</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>13.5</v>
+        <v>1.51</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.96</v>
+        <v>19.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>870</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK3" t="n">
-        <v>990</v>
+        <v>100</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AM3" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.199999999999999</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Armenian Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC Van Yerevan</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="G4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X4" t="n">
         <v>12</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
         <v>4.4</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>2.54</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.78</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="X5" t="n">
-        <v>8.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>34</v>
       </c>
-      <c r="AE5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>26</v>
-      </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fk Velez Mostar</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.46</v>
+        <v>6.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>1.57</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>1.58</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>2.76</v>
+        <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.48</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>5.1</v>
+        <v>2.82</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>2.68</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AK6" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="AL6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="7">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>2.34</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>470</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG7" t="n">
         <v>13</v>
       </c>
-      <c r="AE7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>24</v>
       </c>
-      <c r="AH7" t="n">
-        <v>50</v>
-      </c>
       <c r="AI7" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
         <v>600</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.08</v>
+        <v>5.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>1.71</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>2.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>2.86</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>2.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>9.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="AJ8" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.2</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>7.2</v>
+        <v>2.28</v>
       </c>
       <c r="H9" t="n">
-        <v>1.57</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.58</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>2.66</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.16</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO9" t="n">
         <v>44</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>510</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>1.82</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA10" t="n">
         <v>90</v>
       </c>
-      <c r="AA10" t="n">
-        <v>470</v>
-      </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>23</v>
       </c>
-      <c r="AE10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>130</v>
-      </c>
       <c r="AK10" t="n">
-        <v>44</v>
+        <v>15.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>48</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>6.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -1868,102 +1868,102 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.34</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.26</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>16</v>
@@ -1972,28 +1972,28 @@
         <v>48</v>
       </c>
       <c r="AJ11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
         <v>30</v>
       </c>
-      <c r="AK11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>36</v>
-      </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3</v>
+        <v>1.54</v>
       </c>
       <c r="H12" t="n">
-        <v>1.73</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>1.74</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>3.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>2.34</v>
+        <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.23</v>
+        <v>2.84</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
+        <v>220</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN12" t="n">
         <v>11</v>
       </c>
-      <c r="Z12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>65</v>
-      </c>
       <c r="AO12" t="n">
-        <v>8.199999999999999</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.82</v>
+        <v>2.44</v>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>2.48</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S13" t="n">
         <v>4.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="T13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.46</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W13" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
         <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
-        <v>42</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.4</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="O14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.25</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH14" t="n">
         <v>17</v>
       </c>
-      <c r="AE14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="AJ14" t="n">
         <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.56</v>
+        <v>2.24</v>
       </c>
       <c r="H15" t="n">
-        <v>7.8</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>9.800000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T15" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>1.68</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>2.8</v>
+        <v>1.81</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
         <v>46</v>
       </c>
-      <c r="AE15" t="n">
-        <v>180</v>
-      </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>48</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.48</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="H16" t="n">
-        <v>2.96</v>
+        <v>3.95</v>
       </c>
       <c r="I16" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.5</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Club Independiente Petrolero</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K17" t="n">
         <v>4.2</v>
       </c>
-      <c r="K17" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="S17" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U17" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="V17" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AA17" t="n">
-        <v>340</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN17" t="n">
         <v>55</v>
       </c>
-      <c r="AF17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.18</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>2.58</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>2.64</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="W18" t="n">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="X18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG18" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AJ18" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AO18" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -2948,78 +2948,78 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="H19" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
         <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R19" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T19" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,450 +3028,45 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Club Independiente Petrolero</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Guabira</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="X20" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X22" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO22" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Fk Velez Mostar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.24</v>
+        <v>1.63</v>
       </c>
       <c r="K2" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.47</v>
+        <v>2.24</v>
       </c>
       <c r="N2" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="O2" t="n">
-        <v>3.1</v>
+        <v>8.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.4</v>
+        <v>48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>3.15</v>
+        <v>1.82</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AD2" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,121 +793,121 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fk Velez Mostar</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.72</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>2.98</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>1.28</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.78</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="S3" t="n">
-        <v>5.1</v>
+        <v>27</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="X3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>2.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="AL3" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.05</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.35</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.6</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.64</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
+        <v>8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
         <v>4.2</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.04</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1.24</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>1.26</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>5.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>4.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>75</v>
+        <v>5.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>9.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>8.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>370</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>230</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.4</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC6" t="n">
         <v>7</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AD6" t="n">
         <v>21</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="n">
         <v>48</v>
       </c>
-      <c r="AH6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>510</v>
-      </c>
       <c r="AL6" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>360</v>
       </c>
       <c r="AN6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.4</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.26</v>
+        <v>5.5</v>
       </c>
       <c r="G7" t="n">
-        <v>2.34</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>1.68</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>1.69</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V7" t="n">
-        <v>1.43</v>
+        <v>2.44</v>
       </c>
       <c r="W7" t="n">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>44</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>470</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE7" t="n">
         <v>15</v>
       </c>
-      <c r="AC7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK7" t="n">
         <v>60</v>
       </c>
-      <c r="AF7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="n">
         <v>75</v>
       </c>
-      <c r="AK7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>36</v>
-      </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.4</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.7</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1.71</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="T8" t="n">
         <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>1.76</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>3.15</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.97</v>
+        <v>1.44</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>2.06</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.47</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="X9" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>14</v>
       </c>
-      <c r="Y9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>16</v>
-      </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>6.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="G10" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>3.2</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>2.86</v>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="V10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
         <v>90</v>
       </c>
       <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
         <v>17</v>
       </c>
-      <c r="AC10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AE10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO10" t="n">
         <v>42</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>8.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.9</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.92</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>2.24</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>2.1</v>
+        <v>2.84</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>48</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>2.46</v>
       </c>
       <c r="G12" t="n">
-        <v>1.54</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>8.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>220</v>
-      </c>
       <c r="Z12" t="n">
-        <v>75</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>370</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK12" t="n">
         <v>34</v>
       </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AL12" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>280</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.44</v>
+        <v>1.72</v>
       </c>
       <c r="G13" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>5.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>2.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>1.59</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.66</v>
+        <v>2.28</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF13" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>14</v>
-      </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>7.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>2.24</v>
+        <v>1.81</v>
       </c>
       <c r="X14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK14" t="n">
         <v>24</v>
       </c>
-      <c r="Y14" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.6</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="G15" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>2.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.12</v>
+        <v>1.49</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
       <c r="S15" t="n">
-        <v>3.9</v>
+        <v>2.18</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.58</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Club Independiente Petrolero</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.95</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S16" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="T16" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="V16" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Club Independiente Petrolero</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>3.15</v>
       </c>
       <c r="G17" t="n">
-        <v>2.04</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>2.54</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>2.56</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="P17" t="n">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>2.24</v>
       </c>
       <c r="R17" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>1.96</v>
+        <v>1.45</v>
       </c>
       <c r="X17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE17" t="n">
         <v>32</v>
       </c>
-      <c r="Y17" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK17" t="n">
         <v>42</v>
       </c>
-      <c r="AD17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>70</v>
-      </c>
       <c r="AL17" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO17" t="n">
-        <v>600</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,260 +2813,125 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="H18" t="n">
-        <v>2.58</v>
+        <v>6.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.64</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>1.59</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>2.44</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.61</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>1.45</v>
+        <v>2.72</v>
       </c>
       <c r="X18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
         <v>11</v>
       </c>
-      <c r="AC18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL18" t="n">
         <v>32</v>
       </c>
-      <c r="AF18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>55</v>
-      </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>44</v>
+        <v>6.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="X19" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO19" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,102 +653,102 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fk Velez Mostar</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.2</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>500</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>1.03</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>1.04</v>
       </c>
       <c r="J2" t="n">
-        <v>1.63</v>
+        <v>29</v>
       </c>
       <c r="K2" t="n">
-        <v>1.67</v>
+        <v>40</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>1.82</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -769,16 +769,16 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,105 +788,105 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.28</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>1.66</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>1.67</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.98</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.6</v>
+        <v>60</v>
       </c>
       <c r="R3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="U3" t="n">
-        <v>1.43</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>4.2</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>1.88</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>160</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AH3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -907,13 +907,13 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>1.94</v>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>1.74</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.79</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,94 +961,94 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.58</v>
+        <v>7.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.64</v>
+        <v>1.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>2.44</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>1.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2.28</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.15</v>
+        <v>2.02</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN4" t="n">
         <v>8.6</v>
       </c>
-      <c r="AA4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AO4" t="n">
         <v>48</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>550</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>2.22</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>2.24</v>
       </c>
       <c r="H5" t="n">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.26</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
-        <v>6.2</v>
+        <v>2.86</v>
       </c>
       <c r="K5" t="n">
-        <v>6.8</v>
+        <v>2.88</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="N5" t="n">
-        <v>5.3</v>
+        <v>2.06</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.93</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.31</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>4.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="V5" t="n">
-        <v>4.8</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.3</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.4</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.6</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="AL5" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AM5" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.34</v>
+        <v>1.13</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>46</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.38</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>1.69</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>1.41</v>
+        <v>2.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.13</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>7.8</v>
+        <v>2.58</v>
       </c>
       <c r="T6" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
-        <v>1.76</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>490</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>7</v>
       </c>
-      <c r="AD6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.5</v>
+        <v>1.24</v>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>1.68</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.69</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>2.92</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>1.61</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="U7" t="n">
-        <v>2.34</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>2.44</v>
+        <v>1.41</v>
       </c>
       <c r="W7" t="n">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>1.79</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
-        <v>3.3</v>
+        <v>2.48</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="V8" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL8" t="n">
         <v>25</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="G9" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC9" t="n">
         <v>7.6</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X9" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AK9" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.2</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.86</v>
+        <v>2.26</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Club Independiente Petrolero</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>1.54</v>
+        <v>1.96</v>
       </c>
       <c r="H11" t="n">
-        <v>8.4</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>9.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>1.79</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>2.24</v>
+        <v>1.59</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>2.58</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>2.84</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
       </c>
       <c r="AD11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE11" t="n">
         <v>42</v>
       </c>
-      <c r="AE11" t="n">
-        <v>210</v>
-      </c>
       <c r="AF11" t="n">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
         <v>18.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO11" t="n">
-        <v>330</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.46</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
         <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="n">
         <v>11</v>
       </c>
-      <c r="Y12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN12" t="n">
         <v>44</v>
       </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>34</v>
-      </c>
       <c r="AO12" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,800 +2138,125 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="G13" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
         <v>1.59</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>2.28</v>
+        <v>2.72</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
         <v>11</v>
       </c>
-      <c r="AD13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG13" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Vasco Da Gama</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Mirassol</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CD Victoria</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Atletico Choloma</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Club Independiente Petrolero</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Guabira</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="X16" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="X18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO18" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,60 +653,60 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>200</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.03</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29</v>
-      </c>
-      <c r="K2" t="n">
-        <v>40</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -769,16 +769,16 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.04</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,102 +788,102 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>CD Gualberto Villarroel</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>1.33</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>950</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>1.67</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.01</v>
       </c>
-      <c r="Q3" t="n">
-        <v>60</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="W3" t="n">
         <v>1.01</v>
       </c>
-      <c r="S3" t="n">
-        <v>290</v>
-      </c>
-      <c r="T3" t="n">
-        <v>15</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.26</v>
-      </c>
       <c r="X3" t="n">
-        <v>1.88</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>2.74</v>
       </c>
       <c r="AF3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.94</v>
+        <v>2.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>2.48</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>2.52</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="P4" t="n">
-        <v>7.4</v>
+        <v>1.17</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.15</v>
+        <v>6.6</v>
       </c>
       <c r="R4" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="S4" t="n">
-        <v>1.68</v>
+        <v>23</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.5</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.4</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="n">
-        <v>8.4</v>
+        <v>100</v>
       </c>
       <c r="AL4" t="n">
-        <v>12.5</v>
+        <v>440</v>
       </c>
       <c r="AM4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.6</v>
+        <v>170</v>
       </c>
       <c r="AO4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.22</v>
+        <v>1.73</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>1.78</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.86</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.88</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>2.06</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.93</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.09</v>
-      </c>
       <c r="S5" t="n">
-        <v>11</v>
+        <v>2.02</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>1.52</v>
       </c>
       <c r="U5" t="n">
-        <v>1.46</v>
+        <v>2.56</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.1</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Club Independiente Petrolero</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.13</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.15</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="n">
         <v>46</v>
       </c>
-      <c r="J6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="AF6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN6" t="n">
         <v>7.6</v>
       </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>490</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.24</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>2.54</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>2.56</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.06</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,800 +1463,125 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CD Gualberto Villarroel</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="H8" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
         <v>11</v>
       </c>
-      <c r="AD8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>13</v>
-      </c>
       <c r="AG8" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Vasco Da Gama</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Mirassol</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CD Victoria</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Atletico Choloma</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Club Independiente Petrolero</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Guabira</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2</v>
-      </c>
-      <c r="X11" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="X13" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO13" t="n">
         <v>1000</v>
       </c>
     </row>
